--- a/data/stephanie_countries.xlsx
+++ b/data/stephanie_countries.xlsx
@@ -4,10 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-180" yWindow="0" windowWidth="25620" windowHeight="13460" tabRatio="500"/>
+    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="288">
   <si>
     <t>Panama</t>
   </si>
@@ -202,6 +203,687 @@
   </si>
   <si>
     <t>Barbados, Fiji, Bahamas, HongKong, Kenya, Namibia, Bolivia, Botswana, Malawi, SouthAfrica, Zambia, AntiguaandBarbuda, Belize, Malaysia, Dominica, Philippines</t>
+  </si>
+  <si>
+    <t>CountryName</t>
+  </si>
+  <si>
+    <t>iso3_digit_code</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>Afghanistan</t>
+  </si>
+  <si>
+    <t>Albania</t>
+  </si>
+  <si>
+    <t>Algeria</t>
+  </si>
+  <si>
+    <t>American Samoa</t>
+  </si>
+  <si>
+    <t>Andorra</t>
+  </si>
+  <si>
+    <t>Angola</t>
+  </si>
+  <si>
+    <t>Anguilla</t>
+  </si>
+  <si>
+    <t>Antigua and Barbuda</t>
+  </si>
+  <si>
+    <t>Argentina</t>
+  </si>
+  <si>
+    <t>Armenia</t>
+  </si>
+  <si>
+    <t>Aruba</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Austria</t>
+  </si>
+  <si>
+    <t>Azerbaijan</t>
+  </si>
+  <si>
+    <t>Bahamas</t>
+  </si>
+  <si>
+    <t>Bahrain</t>
+  </si>
+  <si>
+    <t>Bangladesh</t>
+  </si>
+  <si>
+    <t>Barbados</t>
+  </si>
+  <si>
+    <t>Belarus</t>
+  </si>
+  <si>
+    <t>Belgium</t>
+  </si>
+  <si>
+    <t>Belize</t>
+  </si>
+  <si>
+    <t>Benin</t>
+  </si>
+  <si>
+    <t>Bermuda</t>
+  </si>
+  <si>
+    <t>Bhutan</t>
+  </si>
+  <si>
+    <t>Bolivia</t>
+  </si>
+  <si>
+    <t>Bosnia and Herzegovina</t>
+  </si>
+  <si>
+    <t>Botswana</t>
+  </si>
+  <si>
+    <t>Bouvet Island</t>
+  </si>
+  <si>
+    <t>Brazil</t>
+  </si>
+  <si>
+    <t>British Virgin Islands</t>
+  </si>
+  <si>
+    <t>British Indian Ocean Territory</t>
+  </si>
+  <si>
+    <t>Brunei Darussalam</t>
+  </si>
+  <si>
+    <t>Bulgaria</t>
+  </si>
+  <si>
+    <t>Burkina Faso</t>
+  </si>
+  <si>
+    <t>Burundi</t>
+  </si>
+  <si>
+    <t>Cambodia</t>
+  </si>
+  <si>
+    <t>Cameroon</t>
+  </si>
+  <si>
+    <t>Canada</t>
+  </si>
+  <si>
+    <t>Cape Verde</t>
+  </si>
+  <si>
+    <t>Cayman Islands</t>
+  </si>
+  <si>
+    <t>Central African Republic</t>
+  </si>
+  <si>
+    <t>Chad</t>
+  </si>
+  <si>
+    <t>Chile</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>Hong Kong, Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>Macao, Special Administrative Region of China</t>
+  </si>
+  <si>
+    <t>Christmas Island</t>
+  </si>
+  <si>
+    <t>Cocos (Keeling) Islands</t>
+  </si>
+  <si>
+    <t>Colombia</t>
+  </si>
+  <si>
+    <t>Comoros</t>
+  </si>
+  <si>
+    <t>Congo (Brazzaville)</t>
+  </si>
+  <si>
+    <t>Congo, Democratic Republic of the</t>
+  </si>
+  <si>
+    <t>Cook Islands</t>
+  </si>
+  <si>
+    <t>Costa Rica</t>
+  </si>
+  <si>
+    <t>Côte d'Ivoire</t>
+  </si>
+  <si>
+    <t>Croatia</t>
+  </si>
+  <si>
+    <t>Cuba</t>
+  </si>
+  <si>
+    <t>Cyprus</t>
+  </si>
+  <si>
+    <t>Czech Republic</t>
+  </si>
+  <si>
+    <t>Denmark</t>
+  </si>
+  <si>
+    <t>Djibouti</t>
+  </si>
+  <si>
+    <t>Dominica</t>
+  </si>
+  <si>
+    <t>Dominican Republic</t>
+  </si>
+  <si>
+    <t>Ecuador</t>
+  </si>
+  <si>
+    <t>Egypt</t>
+  </si>
+  <si>
+    <t>El Salvador</t>
+  </si>
+  <si>
+    <t>Equatorial Guinea</t>
+  </si>
+  <si>
+    <t>Eritrea</t>
+  </si>
+  <si>
+    <t>Estonia</t>
+  </si>
+  <si>
+    <t>Ethiopia</t>
+  </si>
+  <si>
+    <t>Falkland Islands (Malvinas)</t>
+  </si>
+  <si>
+    <t>Faroe Islands</t>
+  </si>
+  <si>
+    <t>Fiji</t>
+  </si>
+  <si>
+    <t>Finland</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>French Guiana</t>
+  </si>
+  <si>
+    <t>French Polynesia</t>
+  </si>
+  <si>
+    <t>French Southern Territories</t>
+  </si>
+  <si>
+    <t>Gabon</t>
+  </si>
+  <si>
+    <t>Gambia</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Germany</t>
+  </si>
+  <si>
+    <t>Ghana</t>
+  </si>
+  <si>
+    <t>Gibraltar</t>
+  </si>
+  <si>
+    <t>Greece</t>
+  </si>
+  <si>
+    <t>Greenland</t>
+  </si>
+  <si>
+    <t>Grenada</t>
+  </si>
+  <si>
+    <t>Guadeloupe</t>
+  </si>
+  <si>
+    <t>Guam</t>
+  </si>
+  <si>
+    <t>Guatemala</t>
+  </si>
+  <si>
+    <t>Guernsey</t>
+  </si>
+  <si>
+    <t>Guinea</t>
+  </si>
+  <si>
+    <t>Guinea-Bissau</t>
+  </si>
+  <si>
+    <t>Guyana</t>
+  </si>
+  <si>
+    <t>Haiti</t>
+  </si>
+  <si>
+    <t>Heard Island and Mcdonald Islands</t>
+  </si>
+  <si>
+    <t>Holy See (Vatican City State)</t>
+  </si>
+  <si>
+    <t>Honduras</t>
+  </si>
+  <si>
+    <t>Hungary</t>
+  </si>
+  <si>
+    <t>Iceland</t>
+  </si>
+  <si>
+    <t>India</t>
+  </si>
+  <si>
+    <t>Indonesia</t>
+  </si>
+  <si>
+    <t>Iran, Islamic Republic of</t>
+  </si>
+  <si>
+    <t>Iraq</t>
+  </si>
+  <si>
+    <t>Ireland</t>
+  </si>
+  <si>
+    <t>Isle of Man</t>
+  </si>
+  <si>
+    <t>Israel</t>
+  </si>
+  <si>
+    <t>Italy</t>
+  </si>
+  <si>
+    <t>Jamaica</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Jersey</t>
+  </si>
+  <si>
+    <t>Jordan</t>
+  </si>
+  <si>
+    <t>Kazakhstan</t>
+  </si>
+  <si>
+    <t>Kenya</t>
+  </si>
+  <si>
+    <t>Kiribati</t>
+  </si>
+  <si>
+    <t>Korea, Democratic People's Republic of</t>
+  </si>
+  <si>
+    <t>Korea, Republic of</t>
+  </si>
+  <si>
+    <t>Kuwait</t>
+  </si>
+  <si>
+    <t>Kyrgyzstan</t>
+  </si>
+  <si>
+    <t>Lao PDR</t>
+  </si>
+  <si>
+    <t>Latvia</t>
+  </si>
+  <si>
+    <t>Lebanon</t>
+  </si>
+  <si>
+    <t>Lesotho</t>
+  </si>
+  <si>
+    <t>Liberia</t>
+  </si>
+  <si>
+    <t>Libya</t>
+  </si>
+  <si>
+    <t>Liechtenstein</t>
+  </si>
+  <si>
+    <t>Lithuania</t>
+  </si>
+  <si>
+    <t>Luxembourg</t>
+  </si>
+  <si>
+    <t>Macedonia, Republic of</t>
+  </si>
+  <si>
+    <t>Madagascar</t>
+  </si>
+  <si>
+    <t>Malawi</t>
+  </si>
+  <si>
+    <t>Malaysia</t>
+  </si>
+  <si>
+    <t>Maldives</t>
+  </si>
+  <si>
+    <t>Mali</t>
+  </si>
+  <si>
+    <t>Malta</t>
+  </si>
+  <si>
+    <t>Marshall Islands</t>
+  </si>
+  <si>
+    <t>Martinique</t>
+  </si>
+  <si>
+    <t>Mauritania</t>
+  </si>
+  <si>
+    <t>Mauritius</t>
+  </si>
+  <si>
+    <t>Mayotte</t>
+  </si>
+  <si>
+    <t>Mexico</t>
+  </si>
+  <si>
+    <t>Micronesia, Federated States of</t>
+  </si>
+  <si>
+    <t>Moldova</t>
+  </si>
+  <si>
+    <t>Monaco</t>
+  </si>
+  <si>
+    <t>Mongolia</t>
+  </si>
+  <si>
+    <t>Montenegro</t>
+  </si>
+  <si>
+    <t>Montserrat</t>
+  </si>
+  <si>
+    <t>Morocco</t>
+  </si>
+  <si>
+    <t>Mozambique</t>
+  </si>
+  <si>
+    <t>Myanmar</t>
+  </si>
+  <si>
+    <t>Namibia</t>
+  </si>
+  <si>
+    <t>Nauru</t>
+  </si>
+  <si>
+    <t>Nepal</t>
+  </si>
+  <si>
+    <t>Netherlands</t>
+  </si>
+  <si>
+    <t>Netherlands Antilles</t>
+  </si>
+  <si>
+    <t>New Caledonia</t>
+  </si>
+  <si>
+    <t>New Zealand</t>
+  </si>
+  <si>
+    <t>Nicaragua</t>
+  </si>
+  <si>
+    <t>Niger</t>
+  </si>
+  <si>
+    <t>Nigeria</t>
+  </si>
+  <si>
+    <t>Niue</t>
+  </si>
+  <si>
+    <t>Norfolk Island</t>
+  </si>
+  <si>
+    <t>Northern Mariana Islands</t>
+  </si>
+  <si>
+    <t>Norway</t>
+  </si>
+  <si>
+    <t>Oman</t>
+  </si>
+  <si>
+    <t>Pakistan</t>
+  </si>
+  <si>
+    <t>Palau</t>
+  </si>
+  <si>
+    <t>Palestinian Territory, Occupied</t>
+  </si>
+  <si>
+    <t>Papua New Guinea</t>
+  </si>
+  <si>
+    <t>Pitcairn</t>
+  </si>
+  <si>
+    <t>Puerto Rico</t>
+  </si>
+  <si>
+    <t>Qatar</t>
+  </si>
+  <si>
+    <t>Réunion</t>
+  </si>
+  <si>
+    <t>Russian Federation</t>
+  </si>
+  <si>
+    <t>Rwanda</t>
+  </si>
+  <si>
+    <t>Saint-Barthélemy</t>
+  </si>
+  <si>
+    <t>Saint Helena</t>
+  </si>
+  <si>
+    <t>Saint Kitts and Nevis</t>
+  </si>
+  <si>
+    <t>Saint Lucia</t>
+  </si>
+  <si>
+    <t>Saint-Martin (French part)</t>
+  </si>
+  <si>
+    <t>Saint Pierre and Miquelon</t>
+  </si>
+  <si>
+    <t>Saint Vincent and Grenadines</t>
+  </si>
+  <si>
+    <t>Samoa</t>
+  </si>
+  <si>
+    <t>San Marino</t>
+  </si>
+  <si>
+    <t>Sao Tome and Principe</t>
+  </si>
+  <si>
+    <t>Senegal</t>
+  </si>
+  <si>
+    <t>Serbia</t>
+  </si>
+  <si>
+    <t>Sierra Leone</t>
+  </si>
+  <si>
+    <t>Slovakia</t>
+  </si>
+  <si>
+    <t>Solomon Islands</t>
+  </si>
+  <si>
+    <t>Somalia</t>
+  </si>
+  <si>
+    <t>South Georgia and the South Sandwich Islands</t>
+  </si>
+  <si>
+    <t>South Sudan</t>
+  </si>
+  <si>
+    <t>Sri Lanka</t>
+  </si>
+  <si>
+    <t>Sudan</t>
+  </si>
+  <si>
+    <t>Suriname *</t>
+  </si>
+  <si>
+    <t>Svalbard and Jan Mayen Islands</t>
+  </si>
+  <si>
+    <t>Syrian Arab Republic (Syria)</t>
+  </si>
+  <si>
+    <t>Taiwan, Republic of China</t>
+  </si>
+  <si>
+    <t>Tajikistan</t>
+  </si>
+  <si>
+    <t>Tanzania *, United Republic of</t>
+  </si>
+  <si>
+    <t>Timor-Leste</t>
+  </si>
+  <si>
+    <t>Togo</t>
+  </si>
+  <si>
+    <t>Tokelau</t>
+  </si>
+  <si>
+    <t>Tonga</t>
+  </si>
+  <si>
+    <t>Trinidad and Tobago</t>
+  </si>
+  <si>
+    <t>Turkmenistan</t>
+  </si>
+  <si>
+    <t>Turks and Caicos Islands</t>
+  </si>
+  <si>
+    <t>Tuvalu</t>
+  </si>
+  <si>
+    <t>United Arab Emirates</t>
+  </si>
+  <si>
+    <t>United Kingdom</t>
+  </si>
+  <si>
+    <t>United States of America</t>
+  </si>
+  <si>
+    <t>United States Minor Outlying Islands</t>
+  </si>
+  <si>
+    <t>Vanuatu</t>
+  </si>
+  <si>
+    <t>Venezuela (Bolivarian Republic of)</t>
+  </si>
+  <si>
+    <t>Viet Nam</t>
+  </si>
+  <si>
+    <t>Virgin Islands, US</t>
+  </si>
+  <si>
+    <t>Wallis and Futuna Islands</t>
+  </si>
+  <si>
+    <t>Western Sahara</t>
+  </si>
+  <si>
+    <t>Yemen</t>
+  </si>
+  <si>
+    <t>Zambia</t>
+  </si>
+  <si>
+    <t>low</t>
+  </si>
+  <si>
+    <t>lower</t>
+  </si>
+  <si>
+    <t>high</t>
   </si>
 </sst>
 </file>
@@ -266,8 +948,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="129">
+  <cellStyleXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -404,7 +1106,7 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="129">
+  <cellStyles count="149">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -469,6 +1171,16 @@
     <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -533,6 +1245,16 @@
     <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -862,700 +1584,2820 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="17.6640625" style="4" customWidth="1"/>
-    <col min="2" max="2" width="99" style="4" customWidth="1"/>
-    <col min="3" max="6" width="10.83203125" style="4"/>
+    <col min="1" max="3" width="17.6640625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="99" style="4" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="16">
+    <row r="1" spans="1:10" ht="16">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3">
+      <c r="E1" s="3">
         <v>11036.8</v>
       </c>
-      <c r="D1" s="3">
+      <c r="F1" s="3">
         <v>1658000</v>
       </c>
-      <c r="E1" s="3">
+      <c r="G1" s="3">
         <v>619000</v>
       </c>
-      <c r="F1" s="3">
+      <c r="H1" s="3">
         <v>2013</v>
       </c>
-      <c r="G1" s="1"/>
-      <c r="H1" s="1"/>
-    </row>
-    <row r="2" spans="1:8" ht="16">
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+    </row>
+    <row r="2" spans="1:10" ht="16">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C2" s="3">
+      <c r="E2" s="3">
         <v>4264.7</v>
       </c>
-      <c r="D2" s="3">
+      <c r="F2" s="3">
         <v>610000</v>
       </c>
-      <c r="E2" s="3">
+      <c r="G2" s="3">
         <v>440000</v>
       </c>
-      <c r="F2" s="3">
+      <c r="H2" s="3">
         <v>2013</v>
       </c>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8" ht="16">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10" ht="16">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="3">
+      <c r="E3" s="3">
         <v>6661.6</v>
       </c>
-      <c r="D3" s="3">
+      <c r="F3" s="3">
         <v>3164000</v>
       </c>
-      <c r="E3" s="3">
+      <c r="G3" s="3">
         <v>2364000</v>
       </c>
-      <c r="F3" s="3">
+      <c r="H3" s="3">
         <v>2013</v>
       </c>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8" ht="16">
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10" ht="16">
       <c r="A4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C4" s="2">
+      <c r="E4" s="2">
         <v>2765.08</v>
       </c>
-      <c r="D4" s="2">
+      <c r="F4" s="2">
         <v>4681000</v>
       </c>
-      <c r="E4" s="2">
+      <c r="G4" s="2">
         <v>3188000</v>
       </c>
-      <c r="F4" s="3">
+      <c r="H4" s="3">
         <v>2009</v>
       </c>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8" ht="16">
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10" ht="16">
       <c r="A5" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2">
+      <c r="E5" s="2">
         <v>13653.72</v>
       </c>
-      <c r="D5" s="2">
+      <c r="F5" s="2">
         <v>15800000</v>
       </c>
-      <c r="E5" s="2">
+      <c r="G5" s="2">
         <v>10050000</v>
       </c>
-      <c r="F5" s="3">
+      <c r="H5" s="3">
         <v>2013</v>
       </c>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8" ht="16">
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10" ht="16">
       <c r="A6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C6" s="2">
+      <c r="E6" s="2">
         <v>21738.29</v>
       </c>
-      <c r="D6" s="2">
+      <c r="F6" s="2">
         <v>8097000</v>
       </c>
-      <c r="E6" s="2">
+      <c r="G6" s="2">
         <v>20989000</v>
       </c>
-      <c r="F6" s="3">
+      <c r="H6" s="3">
         <v>2007</v>
       </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8" ht="16">
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10" ht="16">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="2">
+      <c r="E7" s="2">
         <v>9490.75</v>
       </c>
-      <c r="D7" s="2">
+      <c r="F7" s="2">
         <v>8019000</v>
       </c>
-      <c r="E7" s="2">
+      <c r="G7" s="2">
         <v>11364000</v>
       </c>
-      <c r="F7" s="3">
+      <c r="H7" s="3">
         <v>2013</v>
       </c>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8" ht="16">
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10" ht="16">
       <c r="A8" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="2">
+      <c r="E8" s="2">
         <v>14611.7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="F8" s="2">
         <v>30792000</v>
       </c>
-      <c r="E8" s="2">
+      <c r="G8" s="2">
         <v>54069000</v>
       </c>
-      <c r="F8" s="3">
+      <c r="H8" s="3">
         <v>2013</v>
       </c>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8" ht="16">
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10" ht="16">
       <c r="A9" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="2">
+      <c r="E9" s="2">
         <v>25961.81</v>
       </c>
-      <c r="D9" s="2">
+      <c r="F9" s="2">
         <v>13380000</v>
       </c>
-      <c r="E9" s="2">
+      <c r="G9" s="2">
         <v>19154000</v>
       </c>
-      <c r="F9" s="3">
+      <c r="H9" s="3">
         <v>2013</v>
       </c>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8" ht="16">
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10" ht="16">
       <c r="A10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="2">
+      <c r="E10" s="2">
         <v>16185.9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="F10" s="2">
         <v>230000</v>
       </c>
-      <c r="E10" s="2">
+      <c r="G10" s="2">
         <v>54000</v>
       </c>
-      <c r="F10" s="3">
+      <c r="H10" s="3">
         <v>2012</v>
       </c>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8" ht="16">
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10" ht="16">
       <c r="A11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="2">
+      <c r="E11" s="2">
         <v>55182.48</v>
       </c>
-      <c r="D11" s="2">
+      <c r="F11" s="2">
         <v>11899000</v>
       </c>
-      <c r="E11" s="2">
+      <c r="G11" s="2">
         <v>8647000</v>
       </c>
-      <c r="F11" s="3">
+      <c r="H11" s="3">
         <v>2013</v>
       </c>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8" ht="16">
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10" ht="16">
       <c r="A12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C12" s="2">
+      <c r="E12" s="2">
         <v>18049.18</v>
       </c>
-      <c r="D12" s="2">
+      <c r="F12" s="2">
         <v>6235000</v>
       </c>
-      <c r="E12" s="2">
+      <c r="G12" s="2">
         <v>2129000</v>
       </c>
-      <c r="F12" s="3">
+      <c r="H12" s="3">
         <v>2012</v>
       </c>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8" ht="16">
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" ht="16">
       <c r="A13" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="2"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="C13" s="2">
+      <c r="E13" s="2">
         <v>23295.34</v>
       </c>
-      <c r="D13" s="2">
+      <c r="F13" s="2">
         <v>2259000</v>
       </c>
-      <c r="E13" s="2">
+      <c r="G13" s="2">
         <v>2612000</v>
       </c>
-      <c r="F13" s="3">
+      <c r="H13" s="3">
         <v>2013</v>
       </c>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8" ht="16">
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10" ht="16">
       <c r="A14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C14" s="2">
+      <c r="E14" s="2">
         <v>6886.29</v>
       </c>
-      <c r="D14" s="2">
+      <c r="F14" s="2">
         <v>9537000</v>
       </c>
-      <c r="E14" s="2">
+      <c r="G14" s="2">
         <v>5168000</v>
       </c>
-      <c r="F14" s="3">
+      <c r="H14" s="3">
         <v>2013</v>
       </c>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8" ht="16">
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10" ht="16">
       <c r="A15" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C15" s="2">
+      <c r="E15" s="2">
         <v>25976.95</v>
       </c>
-      <c r="D15" s="2">
+      <c r="F15" s="2">
         <v>12176000</v>
       </c>
-      <c r="E15" s="2">
+      <c r="G15" s="2">
         <v>14846000</v>
       </c>
-      <c r="F15" s="3">
+      <c r="H15" s="3">
         <v>2013</v>
       </c>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8" ht="16">
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10" ht="16">
       <c r="A16" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="2"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C16" s="2">
+      <c r="E16" s="2">
         <v>29882.14</v>
       </c>
-      <c r="D16" s="2">
+      <c r="F16" s="2">
         <v>60661000</v>
       </c>
-      <c r="E16" s="2">
+      <c r="G16" s="2">
         <v>11246000</v>
       </c>
-      <c r="F16" s="3">
+      <c r="H16" s="3">
         <v>2013</v>
       </c>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8" ht="16">
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10" ht="16">
       <c r="A17" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="2"/>
+      <c r="C17" s="2"/>
+      <c r="D17" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="C17" s="2">
+      <c r="E17" s="2">
         <v>3279.89</v>
       </c>
-      <c r="D17" s="2">
+      <c r="F17" s="2">
         <v>1275000</v>
       </c>
-      <c r="E17" s="2">
+      <c r="G17" s="2">
         <v>1262000</v>
       </c>
-      <c r="F17" s="3">
+      <c r="H17" s="3">
         <v>2013</v>
       </c>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8" ht="16">
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10" ht="16">
       <c r="A18" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="2"/>
+      <c r="C18" s="2"/>
+      <c r="D18" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C18" s="2">
+      <c r="E18" s="2">
         <v>3034.22</v>
       </c>
-      <c r="D18" s="2">
+      <c r="F18" s="2">
         <v>968000</v>
       </c>
-      <c r="E18" s="2">
+      <c r="G18" s="2">
         <v>1573000</v>
       </c>
-      <c r="F18" s="3">
+      <c r="H18" s="3">
         <v>2013</v>
       </c>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8" ht="16">
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10" ht="16">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="2"/>
+      <c r="C19" s="2"/>
+      <c r="D19" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C19" s="2">
+      <c r="E19" s="2">
         <v>60380.95</v>
       </c>
-      <c r="D19" s="2">
+      <c r="F19" s="2">
         <v>5229000</v>
       </c>
-      <c r="E19" s="2">
+      <c r="G19" s="2">
         <v>15917000</v>
       </c>
-      <c r="F19" s="3">
+      <c r="H19" s="3">
         <v>2013</v>
       </c>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8" ht="16">
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10" ht="16">
       <c r="A20" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="C20" s="2">
+      <c r="E20" s="2">
         <v>84748.37</v>
       </c>
-      <c r="D20" s="2">
+      <c r="F20" s="2">
         <v>8967000</v>
       </c>
-      <c r="E20" s="2">
+      <c r="G20" s="2">
         <v>12403000</v>
       </c>
-      <c r="F20" s="3">
+      <c r="H20" s="3">
         <v>2013</v>
       </c>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8" ht="16">
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10" ht="16">
       <c r="A21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="C21" s="2">
+      <c r="E21" s="2">
         <v>912.7</v>
       </c>
-      <c r="D21" s="2">
+      <c r="F21" s="2">
         <v>1063000</v>
       </c>
-      <c r="E21" s="2">
+      <c r="G21" s="2">
         <v>148000</v>
       </c>
-      <c r="F21" s="3">
+      <c r="H21" s="3">
         <v>1996</v>
       </c>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8" ht="16">
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10" ht="16">
       <c r="A22" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C22" s="2">
+      <c r="E22" s="2">
         <v>5778.98</v>
       </c>
-      <c r="D22" s="2">
+      <c r="F22" s="2">
         <v>26547000</v>
       </c>
-      <c r="E22" s="2">
+      <c r="G22" s="2">
         <v>5970000</v>
       </c>
-      <c r="F22" s="3">
+      <c r="H22" s="3">
         <v>2013</v>
       </c>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8" ht="16">
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" ht="16">
       <c r="A23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="2"/>
+      <c r="C23" s="2"/>
+      <c r="D23" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2">
+      <c r="E23" s="2">
         <v>4316.6899999999996</v>
       </c>
-      <c r="D23" s="2">
+      <c r="F23" s="2">
         <v>6269000</v>
       </c>
-      <c r="E23" s="2">
+      <c r="G23" s="2">
         <v>2303000</v>
       </c>
-      <c r="F23" s="3">
+      <c r="H23" s="3">
         <v>2011</v>
       </c>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8" ht="16">
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10" ht="16">
       <c r="A24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="2"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2">
+      <c r="E24" s="2">
         <v>10971.66</v>
       </c>
-      <c r="D24" s="2">
+      <c r="F24" s="2">
         <v>37795000</v>
       </c>
-      <c r="E24" s="2">
+      <c r="G24" s="2">
         <v>7526000</v>
       </c>
-      <c r="F24" s="3">
+      <c r="H24" s="3">
         <v>2013</v>
       </c>
-      <c r="G24" s="1"/>
-      <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8" ht="16">
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10" ht="16">
       <c r="A25" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="2"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="C25" s="2">
+      <c r="E25" s="2">
         <v>657.37</v>
       </c>
-      <c r="D25" s="2">
+      <c r="F25" s="2">
         <v>1206000</v>
       </c>
-      <c r="E25" s="2">
+      <c r="G25" s="2">
         <v>378000</v>
       </c>
-      <c r="F25" s="3">
+      <c r="H25" s="3">
         <v>2013</v>
       </c>
-      <c r="G25" s="1"/>
-      <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8" ht="16">
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10" ht="16">
       <c r="A26" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C26" s="2">
+      <c r="E26" s="2">
         <v>3900.47</v>
       </c>
-      <c r="D26" s="2">
+      <c r="F26" s="2">
         <v>24671000</v>
       </c>
-      <c r="E26" s="2">
+      <c r="G26" s="2">
         <v>23761000</v>
       </c>
-      <c r="F26" s="3">
+      <c r="H26" s="3">
         <v>2013</v>
       </c>
-      <c r="G26" s="1"/>
-      <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8" ht="16">
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10" ht="16">
       <c r="A27" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+      <c r="D27" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="C27" s="2">
+      <c r="E27" s="2">
         <v>53041.98</v>
       </c>
-      <c r="D27" s="2">
+      <c r="F27" s="2">
         <v>69768000</v>
       </c>
-      <c r="E27" s="2">
+      <c r="G27" s="2">
         <v>61569000</v>
       </c>
-      <c r="F27" s="3">
+      <c r="H27" s="3">
         <v>2013</v>
       </c>
-      <c r="G27" s="1"/>
-      <c r="H27" s="1"/>
-    </row>
-    <row r="28" spans="1:8" ht="16">
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
+    </row>
+    <row r="28" spans="1:10" ht="16">
       <c r="A28" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+      <c r="D28" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C28" s="2">
+      <c r="E28" s="2">
         <v>16350.73</v>
       </c>
-      <c r="D28" s="2">
+      <c r="F28" s="2">
         <v>2683000</v>
       </c>
-      <c r="E28" s="2">
+      <c r="G28" s="2">
         <v>2281000</v>
       </c>
-      <c r="F28" s="3">
+      <c r="H28" s="3">
         <v>2013</v>
       </c>
-      <c r="G28" s="1"/>
-      <c r="H28" s="1"/>
-    </row>
-    <row r="29" spans="1:8" ht="16">
+      <c r="I28" s="1"/>
+      <c r="J28" s="1"/>
+    </row>
+    <row r="29" spans="1:10" ht="16">
       <c r="A29" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+      <c r="D29" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C29" s="2">
+      <c r="E29" s="2">
         <v>1877.96</v>
       </c>
-      <c r="D29" s="2">
+      <c r="F29" s="2">
         <v>1969000</v>
       </c>
-      <c r="E29" s="2">
+      <c r="G29" s="2">
         <v>1610000</v>
       </c>
-      <c r="F29" s="3">
+      <c r="H29" s="3">
         <v>2010</v>
       </c>
-      <c r="G29" s="1"/>
-      <c r="H29" s="1"/>
-    </row>
-    <row r="30" spans="1:8" ht="16">
+      <c r="I29" s="1"/>
+      <c r="J29" s="1"/>
+    </row>
+    <row r="30" spans="1:10" ht="16">
       <c r="A30" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+      <c r="D30" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="2">
+      <c r="E30" s="2">
         <v>14414.75</v>
       </c>
-      <c r="D30" s="2">
+      <c r="F30" s="2">
         <v>986000</v>
       </c>
-      <c r="E30" s="2">
+      <c r="G30" s="2">
         <v>1931000</v>
       </c>
-      <c r="F30" s="3">
+      <c r="H30" s="3">
         <v>2013</v>
       </c>
-      <c r="G30" s="1"/>
-      <c r="H30" s="1"/>
-    </row>
-    <row r="31" spans="1:8" ht="16">
+      <c r="I30" s="1"/>
+      <c r="J30" s="1"/>
+    </row>
+    <row r="31" spans="1:10" ht="16">
       <c r="A31" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C31" s="2">
+      <c r="E31" s="2">
         <v>953.38</v>
       </c>
-      <c r="D31" s="2">
+      <c r="F31" s="2">
         <v>1833000</v>
       </c>
-      <c r="E31" s="2">
+      <c r="G31" s="2">
         <v>693000</v>
       </c>
-      <c r="F31" s="3">
+      <c r="H31" s="3">
         <v>2011</v>
       </c>
-      <c r="G31" s="1"/>
-      <c r="H31" s="1"/>
+      <c r="I31" s="1"/>
+      <c r="J31" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G246"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="15.1640625" customWidth="1"/>
+    <col min="2" max="2" width="25.83203125" customWidth="1"/>
+    <col min="5" max="5" width="23.6640625" customWidth="1"/>
+    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" t="s">
+        <v>62</v>
+      </c>
+      <c r="G1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E2" t="s">
+        <v>64</v>
+      </c>
+      <c r="F2">
+        <v>4</v>
+      </c>
+      <c r="G2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="16">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="E4" t="s">
+        <v>66</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+      <c r="G4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16">
+      <c r="A5" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="E5" t="s">
+        <v>67</v>
+      </c>
+      <c r="F5">
+        <v>16</v>
+      </c>
+      <c r="G5" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16">
+      <c r="A6" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="E6" t="s">
+        <v>68</v>
+      </c>
+      <c r="F6">
+        <v>20</v>
+      </c>
+      <c r="G6" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16">
+      <c r="A7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="E7" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="16">
+      <c r="A8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="E8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="E9" t="s">
+        <v>71</v>
+      </c>
+      <c r="F9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="E10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="E11" t="s">
+        <v>73</v>
+      </c>
+      <c r="F11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13">
+        <v>36</v>
+      </c>
+      <c r="G13" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14">
+        <v>40</v>
+      </c>
+      <c r="G14" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>80</v>
+      </c>
+      <c r="F18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>81</v>
+      </c>
+      <c r="F19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" t="s">
+        <v>83</v>
+      </c>
+      <c r="F21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" t="s">
+        <v>84</v>
+      </c>
+      <c r="F22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="5:6">
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="5:6">
+      <c r="E24" t="s">
+        <v>86</v>
+      </c>
+      <c r="F24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="5:6">
+      <c r="E25" t="s">
+        <v>87</v>
+      </c>
+      <c r="F25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="5:6">
+      <c r="E26" t="s">
+        <v>88</v>
+      </c>
+      <c r="F26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="5:6">
+      <c r="E27" t="s">
+        <v>89</v>
+      </c>
+      <c r="F27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="5:6">
+      <c r="E28" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="5:6">
+      <c r="E29" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="5:6">
+      <c r="E30" t="s">
+        <v>92</v>
+      </c>
+      <c r="F30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="5:6">
+      <c r="E31" t="s">
+        <v>93</v>
+      </c>
+      <c r="F31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="5:6">
+      <c r="E32" t="s">
+        <v>94</v>
+      </c>
+      <c r="F32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="5:6">
+      <c r="E33" t="s">
+        <v>95</v>
+      </c>
+      <c r="F33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="5:6">
+      <c r="E34" t="s">
+        <v>96</v>
+      </c>
+      <c r="F34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="5:6">
+      <c r="E35" t="s">
+        <v>97</v>
+      </c>
+      <c r="F35">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="5:6">
+      <c r="E36" t="s">
+        <v>98</v>
+      </c>
+      <c r="F36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="5:6">
+      <c r="E37" t="s">
+        <v>99</v>
+      </c>
+      <c r="F37">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="5:6">
+      <c r="E38" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="5:6">
+      <c r="E39" t="s">
+        <v>101</v>
+      </c>
+      <c r="F39">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="5:6">
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="5:6">
+      <c r="E41" t="s">
+        <v>103</v>
+      </c>
+      <c r="F41">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="5:6">
+      <c r="E42" t="s">
+        <v>104</v>
+      </c>
+      <c r="F42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="5:6">
+      <c r="E43" t="s">
+        <v>105</v>
+      </c>
+      <c r="F43">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="5:6">
+      <c r="E44" t="s">
+        <v>106</v>
+      </c>
+      <c r="F44">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="5:6">
+      <c r="E45" t="s">
+        <v>107</v>
+      </c>
+      <c r="F45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="5:6">
+      <c r="E46" t="s">
+        <v>108</v>
+      </c>
+      <c r="F46">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="5:6">
+      <c r="E47" t="s">
+        <v>109</v>
+      </c>
+      <c r="F47">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="5:6">
+      <c r="E48" t="s">
+        <v>110</v>
+      </c>
+      <c r="F48">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="5:6">
+      <c r="E49" t="s">
+        <v>111</v>
+      </c>
+      <c r="F49">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="5:6">
+      <c r="E50" t="s">
+        <v>112</v>
+      </c>
+      <c r="F50">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="5:6">
+      <c r="E51" t="s">
+        <v>113</v>
+      </c>
+      <c r="F51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="5:6">
+      <c r="E52" t="s">
+        <v>114</v>
+      </c>
+      <c r="F52">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="5:6">
+      <c r="E53" t="s">
+        <v>115</v>
+      </c>
+      <c r="F53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="5:6">
+      <c r="E54" t="s">
+        <v>116</v>
+      </c>
+      <c r="F54">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="5:6">
+      <c r="E55" t="s">
+        <v>117</v>
+      </c>
+      <c r="F55">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="5:6">
+      <c r="E56" t="s">
+        <v>118</v>
+      </c>
+      <c r="F56">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="5:6">
+      <c r="E57" t="s">
+        <v>119</v>
+      </c>
+      <c r="F57">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="5:6">
+      <c r="E58" t="s">
+        <v>120</v>
+      </c>
+      <c r="F58">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="5:6">
+      <c r="E59" t="s">
+        <v>121</v>
+      </c>
+      <c r="F59">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="5:6">
+      <c r="E60" t="s">
+        <v>122</v>
+      </c>
+      <c r="F60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="5:6">
+      <c r="E61" t="s">
+        <v>123</v>
+      </c>
+      <c r="F61">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="5:6">
+      <c r="E62" t="s">
+        <v>124</v>
+      </c>
+      <c r="F62">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="5:6">
+      <c r="E63" t="s">
+        <v>125</v>
+      </c>
+      <c r="F63">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="5:6">
+      <c r="E64" t="s">
+        <v>126</v>
+      </c>
+      <c r="F64">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="5:6">
+      <c r="E65" t="s">
+        <v>127</v>
+      </c>
+      <c r="F65">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="5:6">
+      <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="5:6">
+      <c r="E67" t="s">
+        <v>129</v>
+      </c>
+      <c r="F67">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="5:6">
+      <c r="E68" t="s">
+        <v>130</v>
+      </c>
+      <c r="F68">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="5:6">
+      <c r="E69" t="s">
+        <v>131</v>
+      </c>
+      <c r="F69">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="5:6">
+      <c r="E70" t="s">
+        <v>132</v>
+      </c>
+      <c r="F70">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="5:6">
+      <c r="E71" t="s">
+        <v>133</v>
+      </c>
+      <c r="F71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="5:6">
+      <c r="E72" t="s">
+        <v>134</v>
+      </c>
+      <c r="F72">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="5:6">
+      <c r="E73" t="s">
+        <v>135</v>
+      </c>
+      <c r="F73">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="5:6">
+      <c r="E74" t="s">
+        <v>136</v>
+      </c>
+      <c r="F74">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="5:6">
+      <c r="E75" t="s">
+        <v>137</v>
+      </c>
+      <c r="F75">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="5:6">
+      <c r="E76" t="s">
+        <v>138</v>
+      </c>
+      <c r="F76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="5:6">
+      <c r="E77" t="s">
+        <v>139</v>
+      </c>
+      <c r="F77">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="5:6">
+      <c r="E78" t="s">
+        <v>140</v>
+      </c>
+      <c r="F78">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="5:6">
+      <c r="E79" t="s">
+        <v>141</v>
+      </c>
+      <c r="F79">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="5:6">
+      <c r="E80" t="s">
+        <v>142</v>
+      </c>
+      <c r="F80">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="5:6">
+      <c r="E81" t="s">
+        <v>143</v>
+      </c>
+      <c r="F81">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="5:6">
+      <c r="E82" t="s">
+        <v>144</v>
+      </c>
+      <c r="F82">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="5:6">
+      <c r="E83" t="s">
+        <v>145</v>
+      </c>
+      <c r="F83">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="5:6">
+      <c r="E84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="5:6">
+      <c r="E85" t="s">
+        <v>147</v>
+      </c>
+      <c r="F85">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="5:6">
+      <c r="E86" t="s">
+        <v>148</v>
+      </c>
+      <c r="F86">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="5:6">
+      <c r="E87" t="s">
+        <v>149</v>
+      </c>
+      <c r="F87">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="5:6">
+      <c r="E88" t="s">
+        <v>150</v>
+      </c>
+      <c r="F88">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="5:6">
+      <c r="E89" t="s">
+        <v>151</v>
+      </c>
+      <c r="F89">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="5:6">
+      <c r="E90" t="s">
+        <v>152</v>
+      </c>
+      <c r="F90">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="5:6">
+      <c r="E91" t="s">
+        <v>153</v>
+      </c>
+      <c r="F91">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="5:6">
+      <c r="E92" t="s">
+        <v>154</v>
+      </c>
+      <c r="F92">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="93" spans="5:6">
+      <c r="E93" t="s">
+        <v>155</v>
+      </c>
+      <c r="F93">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="5:6">
+      <c r="E94" t="s">
+        <v>156</v>
+      </c>
+      <c r="F94">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="5:6">
+      <c r="E95" t="s">
+        <v>157</v>
+      </c>
+      <c r="F95">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="5:6">
+      <c r="E96" t="s">
+        <v>158</v>
+      </c>
+      <c r="F96">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="5:6">
+      <c r="E97" t="s">
+        <v>159</v>
+      </c>
+      <c r="F97">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="5:6">
+      <c r="E98" t="s">
+        <v>160</v>
+      </c>
+      <c r="F98">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="5:6">
+      <c r="E99" t="s">
+        <v>161</v>
+      </c>
+      <c r="F99">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="5:6">
+      <c r="E100" t="s">
+        <v>162</v>
+      </c>
+      <c r="F100">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="5:6">
+      <c r="E101" t="s">
+        <v>163</v>
+      </c>
+      <c r="F101">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="5:6">
+      <c r="E102" t="s">
+        <v>164</v>
+      </c>
+      <c r="F102">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="5:6">
+      <c r="E103" t="s">
+        <v>165</v>
+      </c>
+      <c r="F103">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="5:6">
+      <c r="E104" t="s">
+        <v>166</v>
+      </c>
+      <c r="F104">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="5:6">
+      <c r="E105" t="s">
+        <v>167</v>
+      </c>
+      <c r="F105">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="5:6">
+      <c r="E106" t="s">
+        <v>168</v>
+      </c>
+      <c r="F106">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="5:6">
+      <c r="E107" t="s">
+        <v>169</v>
+      </c>
+      <c r="F107">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="108" spans="5:6">
+      <c r="E108" t="s">
+        <v>170</v>
+      </c>
+      <c r="F108">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="5:6">
+      <c r="E109" t="s">
+        <v>171</v>
+      </c>
+      <c r="F109">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="5:6">
+      <c r="E110" t="s">
+        <v>172</v>
+      </c>
+      <c r="F110">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="5:6">
+      <c r="E111" t="s">
+        <v>173</v>
+      </c>
+      <c r="F111">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="5:6">
+      <c r="E112" t="s">
+        <v>174</v>
+      </c>
+      <c r="F112">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="113" spans="5:6">
+      <c r="E113" t="s">
+        <v>175</v>
+      </c>
+      <c r="F113">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="5:6">
+      <c r="E114" t="s">
+        <v>176</v>
+      </c>
+      <c r="F114">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="5:6">
+      <c r="E115" t="s">
+        <v>177</v>
+      </c>
+      <c r="F115">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="5:6">
+      <c r="E116" t="s">
+        <v>178</v>
+      </c>
+      <c r="F116">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="5:6">
+      <c r="E117" t="s">
+        <v>179</v>
+      </c>
+      <c r="F117">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="5:6">
+      <c r="E118" t="s">
+        <v>180</v>
+      </c>
+      <c r="F118">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="5:6">
+      <c r="E119" t="s">
+        <v>181</v>
+      </c>
+      <c r="F119">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="5:6">
+      <c r="E120" t="s">
+        <v>182</v>
+      </c>
+      <c r="F120">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="5:6">
+      <c r="E121" t="s">
+        <v>183</v>
+      </c>
+      <c r="F121">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="122" spans="5:6">
+      <c r="E122" t="s">
+        <v>184</v>
+      </c>
+      <c r="F122">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="123" spans="5:6">
+      <c r="E123" t="s">
+        <v>185</v>
+      </c>
+      <c r="F123">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="124" spans="5:6">
+      <c r="E124" t="s">
+        <v>186</v>
+      </c>
+      <c r="F124">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="125" spans="5:6">
+      <c r="E125" t="s">
+        <v>187</v>
+      </c>
+      <c r="F125">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="126" spans="5:6">
+      <c r="E126" t="s">
+        <v>188</v>
+      </c>
+      <c r="F126">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="127" spans="5:6">
+      <c r="E127" t="s">
+        <v>189</v>
+      </c>
+      <c r="F127">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="128" spans="5:6">
+      <c r="E128" t="s">
+        <v>190</v>
+      </c>
+      <c r="F128">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="5:6">
+      <c r="E129" t="s">
+        <v>191</v>
+      </c>
+      <c r="F129">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="130" spans="5:6">
+      <c r="E130" t="s">
+        <v>192</v>
+      </c>
+      <c r="F130">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="131" spans="5:6">
+      <c r="E131" t="s">
+        <v>193</v>
+      </c>
+      <c r="F131">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="132" spans="5:6">
+      <c r="E132" t="s">
+        <v>194</v>
+      </c>
+      <c r="F132">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="5:6">
+      <c r="E133" t="s">
+        <v>195</v>
+      </c>
+      <c r="F133">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="5:6">
+      <c r="E134" t="s">
+        <v>196</v>
+      </c>
+      <c r="F134">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="135" spans="5:6">
+      <c r="E135" t="s">
+        <v>197</v>
+      </c>
+      <c r="F135">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="5:6">
+      <c r="E136" t="s">
+        <v>198</v>
+      </c>
+      <c r="F136">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="5:6">
+      <c r="E137" t="s">
+        <v>199</v>
+      </c>
+      <c r="F137">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="5:6">
+      <c r="E138" t="s">
+        <v>200</v>
+      </c>
+      <c r="F138">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="5:6">
+      <c r="E139" t="s">
+        <v>201</v>
+      </c>
+      <c r="F139">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="5:6">
+      <c r="E140" t="s">
+        <v>202</v>
+      </c>
+      <c r="F140">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="5:6">
+      <c r="E141" t="s">
+        <v>203</v>
+      </c>
+      <c r="F141">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="5:6">
+      <c r="E142" t="s">
+        <v>204</v>
+      </c>
+      <c r="F142">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="5:6">
+      <c r="E143" t="s">
+        <v>205</v>
+      </c>
+      <c r="F143">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="144" spans="5:6">
+      <c r="E144" t="s">
+        <v>206</v>
+      </c>
+      <c r="F144">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="145" spans="5:6">
+      <c r="E145" t="s">
+        <v>207</v>
+      </c>
+      <c r="F145">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="5:6">
+      <c r="E146" t="s">
+        <v>208</v>
+      </c>
+      <c r="F146">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="147" spans="5:6">
+      <c r="E147" t="s">
+        <v>209</v>
+      </c>
+      <c r="F147">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="5:6">
+      <c r="E148" t="s">
+        <v>210</v>
+      </c>
+      <c r="F148">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="5:6">
+      <c r="E149" t="s">
+        <v>211</v>
+      </c>
+      <c r="F149">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="150" spans="5:6">
+      <c r="E150" t="s">
+        <v>212</v>
+      </c>
+      <c r="F150">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="5:6">
+      <c r="E151" t="s">
+        <v>213</v>
+      </c>
+      <c r="F151">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="5:6">
+      <c r="E152" t="s">
+        <v>214</v>
+      </c>
+      <c r="F152">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="153" spans="5:6">
+      <c r="E153" t="s">
+        <v>215</v>
+      </c>
+      <c r="F153">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="5:6">
+      <c r="E154" t="s">
+        <v>216</v>
+      </c>
+      <c r="F154">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="5:6">
+      <c r="E155" t="s">
+        <v>217</v>
+      </c>
+      <c r="F155">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="156" spans="5:6">
+      <c r="E156" t="s">
+        <v>218</v>
+      </c>
+      <c r="F156">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="5:6">
+      <c r="E157" t="s">
+        <v>219</v>
+      </c>
+      <c r="F157">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="158" spans="5:6">
+      <c r="E158" t="s">
+        <v>220</v>
+      </c>
+      <c r="F158">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="5:6">
+      <c r="E159" t="s">
+        <v>221</v>
+      </c>
+      <c r="F159">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="160" spans="5:6">
+      <c r="E160" t="s">
+        <v>222</v>
+      </c>
+      <c r="F160">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="161" spans="5:6">
+      <c r="E161" t="s">
+        <v>223</v>
+      </c>
+      <c r="F161">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="162" spans="5:6">
+      <c r="E162" t="s">
+        <v>224</v>
+      </c>
+      <c r="F162">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="163" spans="5:6">
+      <c r="E163" t="s">
+        <v>225</v>
+      </c>
+      <c r="F163">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="5:6">
+      <c r="E164" t="s">
+        <v>226</v>
+      </c>
+      <c r="F164">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="5:6">
+      <c r="E165" t="s">
+        <v>227</v>
+      </c>
+      <c r="F165">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="166" spans="5:6">
+      <c r="E166" t="s">
+        <v>228</v>
+      </c>
+      <c r="F166">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" spans="5:6">
+      <c r="E167" t="s">
+        <v>229</v>
+      </c>
+      <c r="F167">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="168" spans="5:6">
+      <c r="E168" t="s">
+        <v>230</v>
+      </c>
+      <c r="F168">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="169" spans="5:6">
+      <c r="E169" t="s">
+        <v>231</v>
+      </c>
+      <c r="F169">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="5:6">
+      <c r="E170" t="s">
+        <v>0</v>
+      </c>
+      <c r="F170">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="5:6">
+      <c r="E171" t="s">
+        <v>232</v>
+      </c>
+      <c r="F171">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="172" spans="5:6">
+      <c r="E172" t="s">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="5:6">
+      <c r="E173" t="s">
+        <v>3</v>
+      </c>
+      <c r="F173">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="174" spans="5:6">
+      <c r="E174" t="s">
+        <v>5</v>
+      </c>
+      <c r="F174">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="5:6">
+      <c r="E175" t="s">
+        <v>233</v>
+      </c>
+      <c r="F175">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="176" spans="5:6">
+      <c r="E176" t="s">
+        <v>7</v>
+      </c>
+      <c r="F176">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="177" spans="5:6">
+      <c r="E177" t="s">
+        <v>9</v>
+      </c>
+      <c r="F177">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="178" spans="5:6">
+      <c r="E178" t="s">
+        <v>234</v>
+      </c>
+      <c r="F178">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="179" spans="5:6">
+      <c r="E179" t="s">
+        <v>235</v>
+      </c>
+      <c r="F179">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="180" spans="5:6">
+      <c r="E180" t="s">
+        <v>236</v>
+      </c>
+      <c r="F180">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="181" spans="5:6">
+      <c r="E181" t="s">
+        <v>11</v>
+      </c>
+      <c r="F181">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="182" spans="5:6">
+      <c r="E182" t="s">
+        <v>237</v>
+      </c>
+      <c r="F182">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="183" spans="5:6">
+      <c r="E183" t="s">
+        <v>238</v>
+      </c>
+      <c r="F183">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="184" spans="5:6">
+      <c r="E184" t="s">
+        <v>239</v>
+      </c>
+      <c r="F184">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="185" spans="5:6">
+      <c r="E185" t="s">
+        <v>240</v>
+      </c>
+      <c r="F185">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="5:6">
+      <c r="E186" t="s">
+        <v>241</v>
+      </c>
+      <c r="F186">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="187" spans="5:6">
+      <c r="E187" t="s">
+        <v>242</v>
+      </c>
+      <c r="F187">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="188" spans="5:6">
+      <c r="E188" t="s">
+        <v>243</v>
+      </c>
+      <c r="F188">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="189" spans="5:6">
+      <c r="E189" t="s">
+        <v>244</v>
+      </c>
+      <c r="F189">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="5:6">
+      <c r="E190" t="s">
+        <v>245</v>
+      </c>
+      <c r="F190">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="191" spans="5:6">
+      <c r="E191" t="s">
+        <v>246</v>
+      </c>
+      <c r="F191">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="192" spans="5:6">
+      <c r="E192" t="s">
+        <v>247</v>
+      </c>
+      <c r="F192">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="193" spans="5:6">
+      <c r="E193" t="s">
+        <v>248</v>
+      </c>
+      <c r="F193">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="194" spans="5:6">
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="195" spans="5:6">
+      <c r="E195" t="s">
+        <v>249</v>
+      </c>
+      <c r="F195">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="196" spans="5:6">
+      <c r="E196" t="s">
+        <v>250</v>
+      </c>
+      <c r="F196">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="197" spans="5:6">
+      <c r="E197" t="s">
+        <v>16</v>
+      </c>
+      <c r="F197">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="198" spans="5:6">
+      <c r="E198" t="s">
+        <v>251</v>
+      </c>
+      <c r="F198">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="199" spans="5:6">
+      <c r="E199" t="s">
+        <v>17</v>
+      </c>
+      <c r="F199">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="200" spans="5:6">
+      <c r="E200" t="s">
+        <v>252</v>
+      </c>
+      <c r="F200">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" spans="5:6">
+      <c r="E201" t="s">
+        <v>19</v>
+      </c>
+      <c r="F201">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="202" spans="5:6">
+      <c r="E202" t="s">
+        <v>253</v>
+      </c>
+      <c r="F202">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="5:6">
+      <c r="E203" t="s">
+        <v>254</v>
+      </c>
+      <c r="F203">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="204" spans="5:6">
+      <c r="E204" t="s">
+        <v>20</v>
+      </c>
+      <c r="F204">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="205" spans="5:6">
+      <c r="E205" t="s">
+        <v>255</v>
+      </c>
+      <c r="F205">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="5:6">
+      <c r="E206" t="s">
+        <v>256</v>
+      </c>
+      <c r="F206">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="207" spans="5:6">
+      <c r="E207" t="s">
+        <v>22</v>
+      </c>
+      <c r="F207">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="208" spans="5:6">
+      <c r="E208" t="s">
+        <v>257</v>
+      </c>
+      <c r="F208">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="5:6">
+      <c r="E209" t="s">
+        <v>258</v>
+      </c>
+      <c r="F209">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="210" spans="5:6">
+      <c r="E210" t="s">
+        <v>259</v>
+      </c>
+      <c r="F210">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="211" spans="5:6">
+      <c r="E211" t="s">
+        <v>260</v>
+      </c>
+      <c r="F211">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="212" spans="5:6">
+      <c r="E212" t="s">
+        <v>24</v>
+      </c>
+      <c r="F212">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="213" spans="5:6">
+      <c r="E213" t="s">
+        <v>25</v>
+      </c>
+      <c r="F213">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="214" spans="5:6">
+      <c r="E214" t="s">
+        <v>26</v>
+      </c>
+      <c r="F214">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="215" spans="5:6">
+      <c r="E215" t="s">
+        <v>261</v>
+      </c>
+      <c r="F215">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="216" spans="5:6">
+      <c r="E216" t="s">
+        <v>262</v>
+      </c>
+      <c r="F216">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="5:6">
+      <c r="E217" t="s">
+        <v>263</v>
+      </c>
+      <c r="F217">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="218" spans="5:6">
+      <c r="E218" t="s">
+        <v>264</v>
+      </c>
+      <c r="F218">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="219" spans="5:6">
+      <c r="E219" t="s">
+        <v>28</v>
+      </c>
+      <c r="F219">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="220" spans="5:6">
+      <c r="E220" t="s">
+        <v>265</v>
+      </c>
+      <c r="F220">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="5:6">
+      <c r="E221" t="s">
+        <v>266</v>
+      </c>
+      <c r="F221">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="222" spans="5:6">
+      <c r="E222" t="s">
+        <v>267</v>
+      </c>
+      <c r="F222">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="223" spans="5:6">
+      <c r="E223" t="s">
+        <v>268</v>
+      </c>
+      <c r="F223">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="224" spans="5:6">
+      <c r="E224" t="s">
+        <v>269</v>
+      </c>
+      <c r="F224">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="225" spans="5:6">
+      <c r="E225" t="s">
+        <v>29</v>
+      </c>
+      <c r="F225">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="226" spans="5:6">
+      <c r="E226" t="s">
+        <v>30</v>
+      </c>
+      <c r="F226">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="227" spans="5:6">
+      <c r="E227" t="s">
+        <v>270</v>
+      </c>
+      <c r="F227">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="228" spans="5:6">
+      <c r="E228" t="s">
+        <v>271</v>
+      </c>
+      <c r="F228">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="229" spans="5:6">
+      <c r="E229" t="s">
+        <v>272</v>
+      </c>
+      <c r="F229">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="230" spans="5:6">
+      <c r="E230" t="s">
+        <v>31</v>
+      </c>
+      <c r="F230">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="231" spans="5:6">
+      <c r="E231" t="s">
+        <v>32</v>
+      </c>
+      <c r="F231">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="232" spans="5:6">
+      <c r="E232" t="s">
+        <v>273</v>
+      </c>
+      <c r="F232">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="233" spans="5:6">
+      <c r="E233" t="s">
+        <v>274</v>
+      </c>
+      <c r="F233">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="234" spans="5:6">
+      <c r="E234" t="s">
+        <v>275</v>
+      </c>
+      <c r="F234">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="5:6">
+      <c r="E235" t="s">
+        <v>276</v>
+      </c>
+      <c r="F235">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="236" spans="5:6">
+      <c r="E236" t="s">
+        <v>34</v>
+      </c>
+      <c r="F236">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="237" spans="5:6">
+      <c r="E237" t="s">
+        <v>35</v>
+      </c>
+      <c r="F237">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="238" spans="5:6">
+      <c r="E238" t="s">
+        <v>277</v>
+      </c>
+      <c r="F238">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="239" spans="5:6">
+      <c r="E239" t="s">
+        <v>278</v>
+      </c>
+      <c r="F239">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="240" spans="5:6">
+      <c r="E240" t="s">
+        <v>279</v>
+      </c>
+      <c r="F240">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="241" spans="5:6">
+      <c r="E241" t="s">
+        <v>280</v>
+      </c>
+      <c r="F241">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="242" spans="5:6">
+      <c r="E242" t="s">
+        <v>281</v>
+      </c>
+      <c r="F242">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="243" spans="5:6">
+      <c r="E243" t="s">
+        <v>282</v>
+      </c>
+      <c r="F243">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="244" spans="5:6">
+      <c r="E244" t="s">
+        <v>283</v>
+      </c>
+      <c r="F244">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="245" spans="5:6">
+      <c r="E245" t="s">
+        <v>284</v>
+      </c>
+      <c r="F245">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="246" spans="5:6">
+      <c r="E246" t="s">
+        <v>37</v>
+      </c>
+      <c r="F246">
+        <v>716</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/data/stephanie_countries.xlsx
+++ b/data/stephanie_countries.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="440" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="13520" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="income grouping" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="288">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="286">
   <si>
     <t>Panama</t>
   </si>
@@ -877,20 +877,14 @@
     <t>Zambia</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
-    <t>lower</t>
-  </si>
-  <si>
-    <t>high</t>
+    <t>GDPPerCapita</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -924,6 +918,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="14.4"/>
+      <color theme="1"/>
+      <name val="Verdana"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -948,7 +947,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="149">
+  <cellStyleXfs count="155">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1098,15 +1097,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="149">
+  <cellStyles count="155">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1181,6 +1191,9 @@
     <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1255,6 +1268,9 @@
     <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1587,7 +1603,7 @@
   <dimension ref="A1:J31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C7"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2354,2048 +2370,2095 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G246"/>
+  <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="15.1640625" customWidth="1"/>
-    <col min="2" max="2" width="25.83203125" customWidth="1"/>
-    <col min="5" max="5" width="23.6640625" customWidth="1"/>
-    <col min="6" max="6" width="19.1640625" customWidth="1"/>
+    <col min="1" max="1" width="23.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.83203125" customWidth="1"/>
+    <col min="4" max="4" width="20.83203125" customWidth="1"/>
+    <col min="11" max="11" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="E1" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B1" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="G1" t="s">
+      <c r="C1" s="5" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="D1" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="7"/>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2">
+        <v>1946.19</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>9930.94</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4">
+        <v>12</v>
+      </c>
+      <c r="D4">
+        <v>5360.7</v>
+      </c>
+      <c r="H4" s="7"/>
+      <c r="I4" s="7"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" t="s">
+        <v>68</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="D6">
+        <v>46418.42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" t="s">
+        <v>73</v>
+      </c>
+      <c r="B11">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="18">
+      <c r="A13" t="s">
+        <v>75</v>
+      </c>
+      <c r="B13">
+        <v>36</v>
+      </c>
+      <c r="D13" s="6">
+        <v>43202.37</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="18">
+      <c r="A14" t="s">
+        <v>76</v>
+      </c>
+      <c r="B14">
+        <v>40</v>
+      </c>
+      <c r="D14" s="6">
+        <v>45079.09</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B15">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
+      <c r="A17" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
+      <c r="A18" t="s">
+        <v>80</v>
+      </c>
+      <c r="B18">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
+      <c r="A19" t="s">
+        <v>81</v>
+      </c>
+      <c r="B19">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
+      <c r="A20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
+      <c r="A21" t="s">
+        <v>83</v>
+      </c>
+      <c r="B21">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
+      <c r="A22" t="s">
+        <v>84</v>
+      </c>
+      <c r="B22">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
+      <c r="A23" t="s">
+        <v>85</v>
+      </c>
+      <c r="B23">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
+      <c r="A24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B24">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
+      <c r="A25" t="s">
+        <v>87</v>
+      </c>
+      <c r="B25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
+      <c r="A26" t="s">
+        <v>88</v>
+      </c>
+      <c r="B26">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
+      <c r="A27" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
+      <c r="A28" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
+      <c r="A29" t="s">
+        <v>91</v>
+      </c>
+      <c r="B29">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
+      <c r="A30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
+      <c r="A31" t="s">
+        <v>93</v>
+      </c>
+      <c r="B31">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
+      <c r="A32" t="s">
+        <v>94</v>
+      </c>
+      <c r="B32">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
+      <c r="A33" t="s">
+        <v>95</v>
+      </c>
+      <c r="B33">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
+      <c r="A34" t="s">
+        <v>96</v>
+      </c>
+      <c r="B34">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
+      <c r="A35" t="s">
+        <v>97</v>
+      </c>
+      <c r="B35">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
+      <c r="A36" t="s">
+        <v>98</v>
+      </c>
+      <c r="B36">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
+      <c r="A37" t="s">
+        <v>99</v>
+      </c>
+      <c r="B37">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
+      <c r="A38" t="s">
+        <v>100</v>
+      </c>
+      <c r="B38">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
+      <c r="A40" t="s">
+        <v>102</v>
+      </c>
+      <c r="B40">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
+      <c r="A41" t="s">
+        <v>103</v>
+      </c>
+      <c r="B41">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
+      <c r="A42" t="s">
+        <v>104</v>
+      </c>
+      <c r="B42">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
+      <c r="A43" t="s">
+        <v>105</v>
+      </c>
+      <c r="B43">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
+      <c r="A44" t="s">
+        <v>106</v>
+      </c>
+      <c r="B44">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
+      <c r="A45" t="s">
+        <v>107</v>
+      </c>
+      <c r="B45">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
+      <c r="A46" t="s">
+        <v>108</v>
+      </c>
+      <c r="B46">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
+      <c r="A47" t="s">
+        <v>109</v>
+      </c>
+      <c r="B47">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
+      <c r="A48" t="s">
+        <v>110</v>
+      </c>
+      <c r="B48">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
+      <c r="A49" t="s">
+        <v>111</v>
+      </c>
+      <c r="B49">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
+      <c r="A50" t="s">
+        <v>112</v>
+      </c>
+      <c r="B50">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
+      <c r="A51" t="s">
+        <v>113</v>
+      </c>
+      <c r="B51">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
+      <c r="A52" t="s">
+        <v>114</v>
+      </c>
+      <c r="B52">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
+      <c r="A53" t="s">
+        <v>115</v>
+      </c>
+      <c r="B53">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
+      <c r="A54" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
+      <c r="A55" t="s">
+        <v>117</v>
+      </c>
+      <c r="B55">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
+      <c r="A56" t="s">
+        <v>118</v>
+      </c>
+      <c r="B56">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" t="s">
+        <v>119</v>
+      </c>
+      <c r="B57">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
+      <c r="A58" t="s">
+        <v>120</v>
+      </c>
+      <c r="B58">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
+      <c r="A59" t="s">
+        <v>121</v>
+      </c>
+      <c r="B59">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
+      <c r="A60" t="s">
+        <v>122</v>
+      </c>
+      <c r="B60">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" t="s">
+        <v>123</v>
+      </c>
+      <c r="B61">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
+      <c r="A62" t="s">
+        <v>124</v>
+      </c>
+      <c r="B62">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
+      <c r="A63" t="s">
+        <v>125</v>
+      </c>
+      <c r="B63">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
+      <c r="A64" t="s">
+        <v>126</v>
+      </c>
+      <c r="B64">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
+      <c r="A65" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" t="s">
+        <v>128</v>
+      </c>
+      <c r="B66">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
+      <c r="A67" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
+      <c r="A68" t="s">
+        <v>130</v>
+      </c>
+      <c r="B68">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
+      <c r="A70" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" t="s">
+        <v>133</v>
+      </c>
+      <c r="B71">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
+      <c r="A72" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
+      <c r="A73" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
+      <c r="A74" t="s">
+        <v>136</v>
+      </c>
+      <c r="B74">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
+      <c r="A76" t="s">
+        <v>138</v>
+      </c>
+      <c r="B76">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
+      <c r="A77" t="s">
+        <v>139</v>
+      </c>
+      <c r="B77">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
+      <c r="A78" t="s">
+        <v>140</v>
+      </c>
+      <c r="B78">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
+      <c r="A79" t="s">
+        <v>141</v>
+      </c>
+      <c r="B79">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" t="s">
+        <v>142</v>
+      </c>
+      <c r="B80">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
+      <c r="A81" t="s">
+        <v>143</v>
+      </c>
+      <c r="B81">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
+      <c r="A82" t="s">
+        <v>144</v>
+      </c>
+      <c r="B82">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
+      <c r="A83" t="s">
+        <v>145</v>
+      </c>
+      <c r="B83">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
+      <c r="A84" t="s">
+        <v>146</v>
+      </c>
+      <c r="B84">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" t="s">
+        <v>147</v>
+      </c>
+      <c r="B85">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
+      <c r="A86" t="s">
+        <v>148</v>
+      </c>
+      <c r="B86">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
+      <c r="A87" t="s">
+        <v>149</v>
+      </c>
+      <c r="B87">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
+      <c r="A88" t="s">
+        <v>150</v>
+      </c>
+      <c r="B88">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" t="s">
+        <v>151</v>
+      </c>
+      <c r="B89">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
+      <c r="A90" t="s">
+        <v>152</v>
+      </c>
+      <c r="B90">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
+      <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
+      <c r="A92" t="s">
+        <v>154</v>
+      </c>
+      <c r="B92">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" t="s">
+        <v>155</v>
+      </c>
+      <c r="B93">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
+      <c r="A94" t="s">
+        <v>156</v>
+      </c>
+      <c r="B94">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
+      <c r="A95" t="s">
+        <v>157</v>
+      </c>
+      <c r="B95">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
+      <c r="A96" t="s">
+        <v>158</v>
+      </c>
+      <c r="B96">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
+      <c r="A97" t="s">
+        <v>159</v>
+      </c>
+      <c r="B97">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" t="s">
+        <v>160</v>
+      </c>
+      <c r="B98">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
+      <c r="A99" t="s">
+        <v>161</v>
+      </c>
+      <c r="B99">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
+      <c r="A100" t="s">
+        <v>162</v>
+      </c>
+      <c r="B100">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
+      <c r="A101" t="s">
+        <v>163</v>
+      </c>
+      <c r="B101">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
+      <c r="A102" t="s">
+        <v>164</v>
+      </c>
+      <c r="B102">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" t="s">
+        <v>165</v>
+      </c>
+      <c r="B103">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
+      <c r="A104" t="s">
+        <v>166</v>
+      </c>
+      <c r="B104">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
+      <c r="A105" t="s">
+        <v>167</v>
+      </c>
+      <c r="B105">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
+      <c r="A106" t="s">
+        <v>168</v>
+      </c>
+      <c r="B106">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
+      <c r="A107" t="s">
+        <v>169</v>
+      </c>
+      <c r="B107">
+        <v>833</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" t="s">
+        <v>170</v>
+      </c>
+      <c r="B108">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
+      <c r="A109" t="s">
+        <v>171</v>
+      </c>
+      <c r="B109">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
+      <c r="A110" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
+      <c r="A111" t="s">
+        <v>173</v>
+      </c>
+      <c r="B111">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
+      <c r="A112" t="s">
+        <v>174</v>
+      </c>
+      <c r="B112">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="113" spans="1:11">
+      <c r="A113" t="s">
+        <v>175</v>
+      </c>
+      <c r="B113">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="114" spans="1:11">
+      <c r="A114" t="s">
+        <v>176</v>
+      </c>
+      <c r="B114">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="115" spans="1:11">
+      <c r="A115" t="s">
+        <v>177</v>
+      </c>
+      <c r="B115">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="116" spans="1:11">
+      <c r="A116" t="s">
+        <v>178</v>
+      </c>
+      <c r="B116">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="117" spans="1:11">
+      <c r="A117" t="s">
+        <v>179</v>
+      </c>
+      <c r="B117">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="118" spans="1:11">
+      <c r="A118" t="s">
+        <v>180</v>
+      </c>
+      <c r="B118">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="119" spans="1:11">
+      <c r="A119" t="s">
+        <v>181</v>
+      </c>
+      <c r="B119">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="120" spans="1:11">
+      <c r="A120" t="s">
+        <v>182</v>
+      </c>
+      <c r="B120">
+        <v>417</v>
+      </c>
+      <c r="H120" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="B2" t="s">
+      <c r="I120" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="C2" t="s">
+      <c r="J120" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="E2" t="s">
+      <c r="K120" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="121" spans="1:11">
+      <c r="A121" t="s">
+        <v>183</v>
+      </c>
+      <c r="B121">
+        <v>418</v>
+      </c>
+      <c r="H121" t="s">
         <v>64</v>
       </c>
-      <c r="F2">
+      <c r="I121">
         <v>4</v>
       </c>
-      <c r="G2" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="16">
-      <c r="A3" s="2" t="s">
+      <c r="K121">
+        <v>1946.19</v>
+      </c>
+    </row>
+    <row r="122" spans="1:11">
+      <c r="A122" t="s">
+        <v>184</v>
+      </c>
+      <c r="B122">
+        <v>428</v>
+      </c>
+      <c r="H122" t="s">
+        <v>65</v>
+      </c>
+      <c r="I122">
+        <v>8</v>
+      </c>
+      <c r="K122">
+        <v>9930.94</v>
+      </c>
+    </row>
+    <row r="123" spans="1:11">
+      <c r="A123" t="s">
+        <v>185</v>
+      </c>
+      <c r="B123">
+        <v>422</v>
+      </c>
+      <c r="H123" t="s">
+        <v>66</v>
+      </c>
+      <c r="I123">
+        <v>12</v>
+      </c>
+      <c r="K123">
+        <v>5360.7</v>
+      </c>
+    </row>
+    <row r="124" spans="1:11">
+      <c r="A124" t="s">
+        <v>186</v>
+      </c>
+      <c r="B124">
+        <v>426</v>
+      </c>
+      <c r="H124" t="s">
+        <v>68</v>
+      </c>
+      <c r="I124">
+        <v>20</v>
+      </c>
+      <c r="K124">
+        <v>46418.42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:11" ht="18">
+      <c r="A125" t="s">
+        <v>187</v>
+      </c>
+      <c r="B125">
+        <v>430</v>
+      </c>
+      <c r="H125" t="s">
+        <v>75</v>
+      </c>
+      <c r="I125">
+        <v>36</v>
+      </c>
+      <c r="K125" s="6">
+        <v>43202.37</v>
+      </c>
+    </row>
+    <row r="126" spans="1:11" ht="18">
+      <c r="A126" t="s">
+        <v>188</v>
+      </c>
+      <c r="B126">
+        <v>434</v>
+      </c>
+      <c r="H126" t="s">
+        <v>76</v>
+      </c>
+      <c r="I126">
+        <v>40</v>
+      </c>
+      <c r="K126" s="6">
+        <v>45079.09</v>
+      </c>
+    </row>
+    <row r="127" spans="1:11" ht="18">
+      <c r="A127" t="s">
+        <v>189</v>
+      </c>
+      <c r="B127">
+        <v>438</v>
+      </c>
+      <c r="H127" t="s">
+        <v>191</v>
+      </c>
+      <c r="I127">
+        <v>442</v>
+      </c>
+      <c r="K127" s="6">
+        <v>110664.8</v>
+      </c>
+    </row>
+    <row r="128" spans="1:11">
+      <c r="A128" t="s">
+        <v>190</v>
+      </c>
+      <c r="B128">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" ht="18">
+      <c r="A129" t="s">
+        <v>191</v>
+      </c>
+      <c r="B129">
+        <v>442</v>
+      </c>
+      <c r="D129" s="6">
+        <v>110664.8</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>192</v>
+      </c>
+      <c r="B130">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>193</v>
+      </c>
+      <c r="B131">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>194</v>
+      </c>
+      <c r="B132">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>195</v>
+      </c>
+      <c r="B133">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>196</v>
+      </c>
+      <c r="B134">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>197</v>
+      </c>
+      <c r="B135">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>198</v>
+      </c>
+      <c r="B136">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>199</v>
+      </c>
+      <c r="B137">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>200</v>
+      </c>
+      <c r="B138">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>201</v>
+      </c>
+      <c r="B139">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>202</v>
+      </c>
+      <c r="B140">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>203</v>
+      </c>
+      <c r="B141">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" t="s">
+        <v>204</v>
+      </c>
+      <c r="B142">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>205</v>
+      </c>
+      <c r="B143">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>206</v>
+      </c>
+      <c r="B144">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
+      <c r="A145" t="s">
+        <v>207</v>
+      </c>
+      <c r="B145">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
+      <c r="A146" t="s">
+        <v>208</v>
+      </c>
+      <c r="B146">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
+      <c r="A147" t="s">
+        <v>209</v>
+      </c>
+      <c r="B147">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
+      <c r="A148" t="s">
+        <v>210</v>
+      </c>
+      <c r="B148">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" t="s">
+        <v>211</v>
+      </c>
+      <c r="B149">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
+      <c r="A150" t="s">
+        <v>212</v>
+      </c>
+      <c r="B150">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
+      <c r="A151" t="s">
+        <v>213</v>
+      </c>
+      <c r="B151">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
+      <c r="A152" t="s">
+        <v>214</v>
+      </c>
+      <c r="B152">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
+      <c r="A153" t="s">
+        <v>215</v>
+      </c>
+      <c r="B153">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" t="s">
+        <v>216</v>
+      </c>
+      <c r="B154">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
+      <c r="A155" t="s">
+        <v>217</v>
+      </c>
+      <c r="B155">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
+      <c r="A156" t="s">
+        <v>218</v>
+      </c>
+      <c r="B156">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
+      <c r="A157" t="s">
+        <v>219</v>
+      </c>
+      <c r="B157">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
+      <c r="A158" t="s">
+        <v>220</v>
+      </c>
+      <c r="B158">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
+      <c r="A159" t="s">
+        <v>221</v>
+      </c>
+      <c r="B159">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" t="s">
+        <v>222</v>
+      </c>
+      <c r="B160">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
+      <c r="A161" t="s">
+        <v>223</v>
+      </c>
+      <c r="B161">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
+      <c r="A162" t="s">
+        <v>224</v>
+      </c>
+      <c r="B162">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
+      <c r="A163" t="s">
+        <v>225</v>
+      </c>
+      <c r="B163">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
+      <c r="A164" t="s">
+        <v>226</v>
+      </c>
+      <c r="B164">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" t="s">
+        <v>227</v>
+      </c>
+      <c r="B165">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
+      <c r="A166" t="s">
+        <v>228</v>
+      </c>
+      <c r="B166">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
+      <c r="A167" t="s">
+        <v>229</v>
+      </c>
+      <c r="B167">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
+      <c r="A168" t="s">
+        <v>230</v>
+      </c>
+      <c r="B168">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
+      <c r="A169" t="s">
+        <v>231</v>
+      </c>
+      <c r="B169">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
+      <c r="A170" t="s">
+        <v>0</v>
+      </c>
+      <c r="B170">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
+      <c r="A171" t="s">
+        <v>232</v>
+      </c>
+      <c r="B171">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
+      <c r="A172" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="E3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F3">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="16">
-      <c r="A4" s="2" t="s">
+      <c r="B172">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
+      <c r="A173" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="E4" t="s">
-        <v>66</v>
-      </c>
-      <c r="F4">
-        <v>12</v>
-      </c>
-      <c r="G4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="16">
-      <c r="A5" s="2" t="s">
+      <c r="B173">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
+      <c r="A174" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="E5" t="s">
-        <v>67</v>
-      </c>
-      <c r="F5">
+      <c r="B174">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
+      <c r="A175" t="s">
+        <v>233</v>
+      </c>
+      <c r="B175">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
+      <c r="A176" t="s">
+        <v>7</v>
+      </c>
+      <c r="B176">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
+      <c r="A177" t="s">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
+      <c r="A178" t="s">
+        <v>234</v>
+      </c>
+      <c r="B178">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
+      <c r="A179" t="s">
+        <v>235</v>
+      </c>
+      <c r="B179">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
+      <c r="A180" t="s">
+        <v>236</v>
+      </c>
+      <c r="B180">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
+      <c r="A181" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
+      <c r="A182" t="s">
+        <v>237</v>
+      </c>
+      <c r="B182">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
+      <c r="A183" t="s">
+        <v>238</v>
+      </c>
+      <c r="B183">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
+      <c r="A184" t="s">
+        <v>239</v>
+      </c>
+      <c r="B184">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
+      <c r="A185" t="s">
+        <v>240</v>
+      </c>
+      <c r="B185">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
+      <c r="A186" t="s">
+        <v>241</v>
+      </c>
+      <c r="B186">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
+      <c r="A187" t="s">
+        <v>242</v>
+      </c>
+      <c r="B187">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
+      <c r="A188" t="s">
+        <v>243</v>
+      </c>
+      <c r="B188">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
+      <c r="A189" t="s">
+        <v>244</v>
+      </c>
+      <c r="B189">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
+      <c r="A190" t="s">
+        <v>245</v>
+      </c>
+      <c r="B190">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
+      <c r="A191" t="s">
+        <v>246</v>
+      </c>
+      <c r="B191">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
+      <c r="A192" t="s">
+        <v>247</v>
+      </c>
+      <c r="B192">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
+      <c r="A193" t="s">
+        <v>248</v>
+      </c>
+      <c r="B193">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
+      <c r="A194" t="s">
+        <v>14</v>
+      </c>
+      <c r="B194">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
+      <c r="A195" t="s">
+        <v>249</v>
+      </c>
+      <c r="B195">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
+      <c r="A196" t="s">
+        <v>250</v>
+      </c>
+      <c r="B196">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
+      <c r="A197" t="s">
         <v>16</v>
       </c>
-      <c r="G5" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="16">
-      <c r="A6" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="E6" t="s">
-        <v>68</v>
-      </c>
-      <c r="F6">
+      <c r="B197">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
+      <c r="A198" t="s">
+        <v>251</v>
+      </c>
+      <c r="B198">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
+      <c r="A199" t="s">
+        <v>17</v>
+      </c>
+      <c r="B199">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
+      <c r="A200" t="s">
+        <v>252</v>
+      </c>
+      <c r="B200">
+        <v>703</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
+      <c r="A201" t="s">
+        <v>19</v>
+      </c>
+      <c r="B201">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
+      <c r="A202" t="s">
+        <v>253</v>
+      </c>
+      <c r="B202">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
+      <c r="A203" t="s">
+        <v>254</v>
+      </c>
+      <c r="B203">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
+      <c r="A204" t="s">
         <v>20</v>
       </c>
-      <c r="G6" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" ht="16">
-      <c r="A7" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="E7" t="s">
-        <v>69</v>
-      </c>
-      <c r="F7">
+      <c r="B204">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
+      <c r="A205" t="s">
+        <v>255</v>
+      </c>
+      <c r="B205">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
+      <c r="A206" t="s">
+        <v>256</v>
+      </c>
+      <c r="B206">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
+      <c r="A207" t="s">
+        <v>22</v>
+      </c>
+      <c r="B207">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
+      <c r="A208" t="s">
+        <v>257</v>
+      </c>
+      <c r="B208">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
+      <c r="A209" t="s">
+        <v>258</v>
+      </c>
+      <c r="B209">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
+      <c r="A210" t="s">
+        <v>259</v>
+      </c>
+      <c r="B210">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
+      <c r="A211" t="s">
+        <v>260</v>
+      </c>
+      <c r="B211">
+        <v>744</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
+      <c r="A212" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" ht="16">
-      <c r="A8" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="E8" t="s">
-        <v>70</v>
-      </c>
-      <c r="F8">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="E9" t="s">
-        <v>71</v>
-      </c>
-      <c r="F9">
+      <c r="B212">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
+      <c r="A213" t="s">
+        <v>25</v>
+      </c>
+      <c r="B213">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
+      <c r="A214" t="s">
+        <v>26</v>
+      </c>
+      <c r="B214">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
+      <c r="A215" t="s">
+        <v>261</v>
+      </c>
+      <c r="B215">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
+      <c r="A216" t="s">
+        <v>262</v>
+      </c>
+      <c r="B216">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
+      <c r="A217" t="s">
+        <v>263</v>
+      </c>
+      <c r="B217">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
+      <c r="A218" t="s">
+        <v>264</v>
+      </c>
+      <c r="B218">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
+      <c r="A219" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="E10" t="s">
-        <v>72</v>
-      </c>
-      <c r="F10">
+      <c r="B219">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
+      <c r="A220" t="s">
+        <v>265</v>
+      </c>
+      <c r="B220">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
+      <c r="A221" t="s">
+        <v>266</v>
+      </c>
+      <c r="B221">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
+      <c r="A222" t="s">
+        <v>267</v>
+      </c>
+      <c r="B222">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
+      <c r="A223" t="s">
+        <v>268</v>
+      </c>
+      <c r="B223">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
+      <c r="A224" t="s">
+        <v>269</v>
+      </c>
+      <c r="B224">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
+      <c r="A225" t="s">
+        <v>29</v>
+      </c>
+      <c r="B225">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
+      <c r="A226" t="s">
+        <v>30</v>
+      </c>
+      <c r="B226">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
+      <c r="A227" t="s">
+        <v>270</v>
+      </c>
+      <c r="B227">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
+      <c r="A228" t="s">
+        <v>271</v>
+      </c>
+      <c r="B228">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
+      <c r="A229" t="s">
+        <v>272</v>
+      </c>
+      <c r="B229">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
+      <c r="A230" t="s">
+        <v>31</v>
+      </c>
+      <c r="B230">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
+      <c r="A231" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="E11" t="s">
-        <v>73</v>
-      </c>
-      <c r="F11">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="E12" t="s">
-        <v>74</v>
-      </c>
-      <c r="F12">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="E13" t="s">
-        <v>75</v>
-      </c>
-      <c r="F13">
-        <v>36</v>
-      </c>
-      <c r="G13" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="E14" t="s">
-        <v>76</v>
-      </c>
-      <c r="F14">
-        <v>40</v>
-      </c>
-      <c r="G14" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="E15" t="s">
-        <v>77</v>
-      </c>
-      <c r="F15">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="E16" t="s">
-        <v>78</v>
-      </c>
-      <c r="F16">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="5:6">
-      <c r="E17" t="s">
-        <v>79</v>
-      </c>
-      <c r="F17">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="18" spans="5:6">
-      <c r="E18" t="s">
-        <v>80</v>
-      </c>
-      <c r="F18">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="5:6">
-      <c r="E19" t="s">
-        <v>81</v>
-      </c>
-      <c r="F19">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="20" spans="5:6">
-      <c r="E20" t="s">
-        <v>82</v>
-      </c>
-      <c r="F20">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="21" spans="5:6">
-      <c r="E21" t="s">
-        <v>83</v>
-      </c>
-      <c r="F21">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="22" spans="5:6">
-      <c r="E22" t="s">
-        <v>84</v>
-      </c>
-      <c r="F22">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="23" spans="5:6">
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="24" spans="5:6">
-      <c r="E24" t="s">
-        <v>86</v>
-      </c>
-      <c r="F24">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="5:6">
-      <c r="E25" t="s">
-        <v>87</v>
-      </c>
-      <c r="F25">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="5:6">
-      <c r="E26" t="s">
-        <v>88</v>
-      </c>
-      <c r="F26">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="27" spans="5:6">
-      <c r="E27" t="s">
-        <v>89</v>
-      </c>
-      <c r="F27">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="5:6">
-      <c r="E28" t="s">
-        <v>90</v>
-      </c>
-      <c r="F28">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="5:6">
-      <c r="E29" t="s">
-        <v>91</v>
-      </c>
-      <c r="F29">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="5:6">
-      <c r="E30" t="s">
-        <v>92</v>
-      </c>
-      <c r="F30">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="31" spans="5:6">
-      <c r="E31" t="s">
-        <v>93</v>
-      </c>
-      <c r="F31">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="32" spans="5:6">
-      <c r="E32" t="s">
-        <v>94</v>
-      </c>
-      <c r="F32">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="33" spans="5:6">
-      <c r="E33" t="s">
-        <v>95</v>
-      </c>
-      <c r="F33">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="34" spans="5:6">
-      <c r="E34" t="s">
-        <v>96</v>
-      </c>
-      <c r="F34">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="35" spans="5:6">
-      <c r="E35" t="s">
-        <v>97</v>
-      </c>
-      <c r="F35">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="36" spans="5:6">
-      <c r="E36" t="s">
-        <v>98</v>
-      </c>
-      <c r="F36">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="37" spans="5:6">
-      <c r="E37" t="s">
-        <v>99</v>
-      </c>
-      <c r="F37">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="38" spans="5:6">
-      <c r="E38" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="39" spans="5:6">
-      <c r="E39" t="s">
-        <v>101</v>
-      </c>
-      <c r="F39">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="40" spans="5:6">
-      <c r="E40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F40">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="5:6">
-      <c r="E41" t="s">
-        <v>103</v>
-      </c>
-      <c r="F41">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="42" spans="5:6">
-      <c r="E42" t="s">
-        <v>104</v>
-      </c>
-      <c r="F42">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="43" spans="5:6">
-      <c r="E43" t="s">
-        <v>105</v>
-      </c>
-      <c r="F43">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="44" spans="5:6">
-      <c r="E44" t="s">
-        <v>106</v>
-      </c>
-      <c r="F44">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="45" spans="5:6">
-      <c r="E45" t="s">
-        <v>107</v>
-      </c>
-      <c r="F45">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="46" spans="5:6">
-      <c r="E46" t="s">
-        <v>108</v>
-      </c>
-      <c r="F46">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="47" spans="5:6">
-      <c r="E47" t="s">
-        <v>109</v>
-      </c>
-      <c r="F47">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="48" spans="5:6">
-      <c r="E48" t="s">
-        <v>110</v>
-      </c>
-      <c r="F48">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="49" spans="5:6">
-      <c r="E49" t="s">
-        <v>111</v>
-      </c>
-      <c r="F49">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="50" spans="5:6">
-      <c r="E50" t="s">
-        <v>112</v>
-      </c>
-      <c r="F50">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="51" spans="5:6">
-      <c r="E51" t="s">
-        <v>113</v>
-      </c>
-      <c r="F51">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="52" spans="5:6">
-      <c r="E52" t="s">
-        <v>114</v>
-      </c>
-      <c r="F52">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="53" spans="5:6">
-      <c r="E53" t="s">
-        <v>115</v>
-      </c>
-      <c r="F53">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="54" spans="5:6">
-      <c r="E54" t="s">
-        <v>116</v>
-      </c>
-      <c r="F54">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="55" spans="5:6">
-      <c r="E55" t="s">
-        <v>117</v>
-      </c>
-      <c r="F55">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="56" spans="5:6">
-      <c r="E56" t="s">
-        <v>118</v>
-      </c>
-      <c r="F56">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="57" spans="5:6">
-      <c r="E57" t="s">
-        <v>119</v>
-      </c>
-      <c r="F57">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="58" spans="5:6">
-      <c r="E58" t="s">
-        <v>120</v>
-      </c>
-      <c r="F58">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="59" spans="5:6">
-      <c r="E59" t="s">
-        <v>121</v>
-      </c>
-      <c r="F59">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="60" spans="5:6">
-      <c r="E60" t="s">
-        <v>122</v>
-      </c>
-      <c r="F60">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="61" spans="5:6">
-      <c r="E61" t="s">
-        <v>123</v>
-      </c>
-      <c r="F61">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="62" spans="5:6">
-      <c r="E62" t="s">
-        <v>124</v>
-      </c>
-      <c r="F62">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="63" spans="5:6">
-      <c r="E63" t="s">
-        <v>125</v>
-      </c>
-      <c r="F63">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="64" spans="5:6">
-      <c r="E64" t="s">
-        <v>126</v>
-      </c>
-      <c r="F64">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="65" spans="5:6">
-      <c r="E65" t="s">
-        <v>127</v>
-      </c>
-      <c r="F65">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="5:6">
-      <c r="E66" t="s">
-        <v>128</v>
-      </c>
-      <c r="F66">
-        <v>818</v>
-      </c>
-    </row>
-    <row r="67" spans="5:6">
-      <c r="E67" t="s">
-        <v>129</v>
-      </c>
-      <c r="F67">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="68" spans="5:6">
-      <c r="E68" t="s">
-        <v>130</v>
-      </c>
-      <c r="F68">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="69" spans="5:6">
-      <c r="E69" t="s">
-        <v>131</v>
-      </c>
-      <c r="F69">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="70" spans="5:6">
-      <c r="E70" t="s">
-        <v>132</v>
-      </c>
-      <c r="F70">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="71" spans="5:6">
-      <c r="E71" t="s">
-        <v>133</v>
-      </c>
-      <c r="F71">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="72" spans="5:6">
-      <c r="E72" t="s">
-        <v>134</v>
-      </c>
-      <c r="F72">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="5:6">
-      <c r="E73" t="s">
-        <v>135</v>
-      </c>
-      <c r="F73">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="74" spans="5:6">
-      <c r="E74" t="s">
-        <v>136</v>
-      </c>
-      <c r="F74">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="75" spans="5:6">
-      <c r="E75" t="s">
-        <v>137</v>
-      </c>
-      <c r="F75">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="76" spans="5:6">
-      <c r="E76" t="s">
-        <v>138</v>
-      </c>
-      <c r="F76">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="77" spans="5:6">
-      <c r="E77" t="s">
-        <v>139</v>
-      </c>
-      <c r="F77">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="78" spans="5:6">
-      <c r="E78" t="s">
-        <v>140</v>
-      </c>
-      <c r="F78">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="79" spans="5:6">
-      <c r="E79" t="s">
-        <v>141</v>
-      </c>
-      <c r="F79">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="80" spans="5:6">
-      <c r="E80" t="s">
-        <v>142</v>
-      </c>
-      <c r="F80">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="81" spans="5:6">
-      <c r="E81" t="s">
-        <v>143</v>
-      </c>
-      <c r="F81">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="82" spans="5:6">
-      <c r="E82" t="s">
-        <v>144</v>
-      </c>
-      <c r="F82">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="83" spans="5:6">
-      <c r="E83" t="s">
-        <v>145</v>
-      </c>
-      <c r="F83">
+      <c r="B231">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
+      <c r="A232" t="s">
+        <v>273</v>
+      </c>
+      <c r="B232">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
+      <c r="A233" t="s">
+        <v>274</v>
+      </c>
+      <c r="B233">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
+      <c r="A234" t="s">
+        <v>275</v>
+      </c>
+      <c r="B234">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
+      <c r="A235" t="s">
         <v>276</v>
       </c>
-    </row>
-    <row r="84" spans="5:6">
-      <c r="E84" t="s">
-        <v>146</v>
-      </c>
-      <c r="F84">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="85" spans="5:6">
-      <c r="E85" t="s">
-        <v>147</v>
-      </c>
-      <c r="F85">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="86" spans="5:6">
-      <c r="E86" t="s">
-        <v>148</v>
-      </c>
-      <c r="F86">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="5:6">
-      <c r="E87" t="s">
-        <v>149</v>
-      </c>
-      <c r="F87">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="88" spans="5:6">
-      <c r="E88" t="s">
-        <v>150</v>
-      </c>
-      <c r="F88">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="89" spans="5:6">
-      <c r="E89" t="s">
-        <v>151</v>
-      </c>
-      <c r="F89">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="90" spans="5:6">
-      <c r="E90" t="s">
-        <v>152</v>
-      </c>
-      <c r="F90">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="91" spans="5:6">
-      <c r="E91" t="s">
-        <v>153</v>
-      </c>
-      <c r="F91">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="92" spans="5:6">
-      <c r="E92" t="s">
-        <v>154</v>
-      </c>
-      <c r="F92">
-        <v>831</v>
-      </c>
-    </row>
-    <row r="93" spans="5:6">
-      <c r="E93" t="s">
-        <v>155</v>
-      </c>
-      <c r="F93">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="94" spans="5:6">
-      <c r="E94" t="s">
-        <v>156</v>
-      </c>
-      <c r="F94">
-        <v>624</v>
-      </c>
-    </row>
-    <row r="95" spans="5:6">
-      <c r="E95" t="s">
-        <v>157</v>
-      </c>
-      <c r="F95">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="96" spans="5:6">
-      <c r="E96" t="s">
-        <v>158</v>
-      </c>
-      <c r="F96">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="97" spans="5:6">
-      <c r="E97" t="s">
-        <v>159</v>
-      </c>
-      <c r="F97">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="98" spans="5:6">
-      <c r="E98" t="s">
-        <v>160</v>
-      </c>
-      <c r="F98">
-        <v>336</v>
-      </c>
-    </row>
-    <row r="99" spans="5:6">
-      <c r="E99" t="s">
-        <v>161</v>
-      </c>
-      <c r="F99">
-        <v>340</v>
-      </c>
-    </row>
-    <row r="100" spans="5:6">
-      <c r="E100" t="s">
-        <v>162</v>
-      </c>
-      <c r="F100">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="101" spans="5:6">
-      <c r="E101" t="s">
-        <v>163</v>
-      </c>
-      <c r="F101">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="102" spans="5:6">
-      <c r="E102" t="s">
-        <v>164</v>
-      </c>
-      <c r="F102">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="103" spans="5:6">
-      <c r="E103" t="s">
-        <v>165</v>
-      </c>
-      <c r="F103">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="104" spans="5:6">
-      <c r="E104" t="s">
-        <v>166</v>
-      </c>
-      <c r="F104">
-        <v>364</v>
-      </c>
-    </row>
-    <row r="105" spans="5:6">
-      <c r="E105" t="s">
-        <v>167</v>
-      </c>
-      <c r="F105">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="106" spans="5:6">
-      <c r="E106" t="s">
-        <v>168</v>
-      </c>
-      <c r="F106">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="107" spans="5:6">
-      <c r="E107" t="s">
-        <v>169</v>
-      </c>
-      <c r="F107">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="108" spans="5:6">
-      <c r="E108" t="s">
-        <v>170</v>
-      </c>
-      <c r="F108">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="109" spans="5:6">
-      <c r="E109" t="s">
-        <v>171</v>
-      </c>
-      <c r="F109">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="110" spans="5:6">
-      <c r="E110" t="s">
-        <v>172</v>
-      </c>
-      <c r="F110">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="111" spans="5:6">
-      <c r="E111" t="s">
-        <v>173</v>
-      </c>
-      <c r="F111">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="112" spans="5:6">
-      <c r="E112" t="s">
-        <v>174</v>
-      </c>
-      <c r="F112">
-        <v>832</v>
-      </c>
-    </row>
-    <row r="113" spans="5:6">
-      <c r="E113" t="s">
-        <v>175</v>
-      </c>
-      <c r="F113">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="114" spans="5:6">
-      <c r="E114" t="s">
-        <v>176</v>
-      </c>
-      <c r="F114">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="115" spans="5:6">
-      <c r="E115" t="s">
-        <v>177</v>
-      </c>
-      <c r="F115">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="116" spans="5:6">
-      <c r="E116" t="s">
-        <v>178</v>
-      </c>
-      <c r="F116">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="117" spans="5:6">
-      <c r="E117" t="s">
-        <v>179</v>
-      </c>
-      <c r="F117">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="118" spans="5:6">
-      <c r="E118" t="s">
-        <v>180</v>
-      </c>
-      <c r="F118">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="119" spans="5:6">
-      <c r="E119" t="s">
-        <v>181</v>
-      </c>
-      <c r="F119">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="120" spans="5:6">
-      <c r="E120" t="s">
-        <v>182</v>
-      </c>
-      <c r="F120">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="121" spans="5:6">
-      <c r="E121" t="s">
-        <v>183</v>
-      </c>
-      <c r="F121">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="122" spans="5:6">
-      <c r="E122" t="s">
-        <v>184</v>
-      </c>
-      <c r="F122">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="123" spans="5:6">
-      <c r="E123" t="s">
-        <v>185</v>
-      </c>
-      <c r="F123">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="124" spans="5:6">
-      <c r="E124" t="s">
-        <v>186</v>
-      </c>
-      <c r="F124">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="125" spans="5:6">
-      <c r="E125" t="s">
-        <v>187</v>
-      </c>
-      <c r="F125">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="126" spans="5:6">
-      <c r="E126" t="s">
-        <v>188</v>
-      </c>
-      <c r="F126">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="127" spans="5:6">
-      <c r="E127" t="s">
-        <v>189</v>
-      </c>
-      <c r="F127">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="128" spans="5:6">
-      <c r="E128" t="s">
-        <v>190</v>
-      </c>
-      <c r="F128">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="129" spans="5:6">
-      <c r="E129" t="s">
-        <v>191</v>
-      </c>
-      <c r="F129">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="130" spans="5:6">
-      <c r="E130" t="s">
-        <v>192</v>
-      </c>
-      <c r="F130">
-        <v>807</v>
-      </c>
-    </row>
-    <row r="131" spans="5:6">
-      <c r="E131" t="s">
-        <v>193</v>
-      </c>
-      <c r="F131">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="132" spans="5:6">
-      <c r="E132" t="s">
-        <v>194</v>
-      </c>
-      <c r="F132">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="133" spans="5:6">
-      <c r="E133" t="s">
-        <v>195</v>
-      </c>
-      <c r="F133">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="134" spans="5:6">
-      <c r="E134" t="s">
-        <v>196</v>
-      </c>
-      <c r="F134">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="135" spans="5:6">
-      <c r="E135" t="s">
-        <v>197</v>
-      </c>
-      <c r="F135">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="136" spans="5:6">
-      <c r="E136" t="s">
-        <v>198</v>
-      </c>
-      <c r="F136">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="137" spans="5:6">
-      <c r="E137" t="s">
-        <v>199</v>
-      </c>
-      <c r="F137">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="138" spans="5:6">
-      <c r="E138" t="s">
-        <v>200</v>
-      </c>
-      <c r="F138">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="139" spans="5:6">
-      <c r="E139" t="s">
-        <v>201</v>
-      </c>
-      <c r="F139">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="140" spans="5:6">
-      <c r="E140" t="s">
-        <v>202</v>
-      </c>
-      <c r="F140">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="141" spans="5:6">
-      <c r="E141" t="s">
-        <v>203</v>
-      </c>
-      <c r="F141">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="142" spans="5:6">
-      <c r="E142" t="s">
-        <v>204</v>
-      </c>
-      <c r="F142">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="143" spans="5:6">
-      <c r="E143" t="s">
-        <v>205</v>
-      </c>
-      <c r="F143">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="144" spans="5:6">
-      <c r="E144" t="s">
-        <v>206</v>
-      </c>
-      <c r="F144">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="145" spans="5:6">
-      <c r="E145" t="s">
-        <v>207</v>
-      </c>
-      <c r="F145">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="146" spans="5:6">
-      <c r="E146" t="s">
-        <v>208</v>
-      </c>
-      <c r="F146">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="147" spans="5:6">
-      <c r="E147" t="s">
-        <v>209</v>
-      </c>
-      <c r="F147">
-        <v>499</v>
-      </c>
-    </row>
-    <row r="148" spans="5:6">
-      <c r="E148" t="s">
-        <v>210</v>
-      </c>
-      <c r="F148">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="149" spans="5:6">
-      <c r="E149" t="s">
-        <v>211</v>
-      </c>
-      <c r="F149">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="150" spans="5:6">
-      <c r="E150" t="s">
-        <v>212</v>
-      </c>
-      <c r="F150">
-        <v>508</v>
-      </c>
-    </row>
-    <row r="151" spans="5:6">
-      <c r="E151" t="s">
-        <v>213</v>
-      </c>
-      <c r="F151">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="152" spans="5:6">
-      <c r="E152" t="s">
-        <v>214</v>
-      </c>
-      <c r="F152">
-        <v>516</v>
-      </c>
-    </row>
-    <row r="153" spans="5:6">
-      <c r="E153" t="s">
-        <v>215</v>
-      </c>
-      <c r="F153">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="154" spans="5:6">
-      <c r="E154" t="s">
-        <v>216</v>
-      </c>
-      <c r="F154">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="155" spans="5:6">
-      <c r="E155" t="s">
-        <v>217</v>
-      </c>
-      <c r="F155">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="156" spans="5:6">
-      <c r="E156" t="s">
-        <v>218</v>
-      </c>
-      <c r="F156">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="157" spans="5:6">
-      <c r="E157" t="s">
-        <v>219</v>
-      </c>
-      <c r="F157">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="158" spans="5:6">
-      <c r="E158" t="s">
-        <v>220</v>
-      </c>
-      <c r="F158">
-        <v>554</v>
-      </c>
-    </row>
-    <row r="159" spans="5:6">
-      <c r="E159" t="s">
-        <v>221</v>
-      </c>
-      <c r="F159">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="160" spans="5:6">
-      <c r="E160" t="s">
-        <v>222</v>
-      </c>
-      <c r="F160">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="161" spans="5:6">
-      <c r="E161" t="s">
-        <v>223</v>
-      </c>
-      <c r="F161">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="162" spans="5:6">
-      <c r="E162" t="s">
-        <v>224</v>
-      </c>
-      <c r="F162">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="163" spans="5:6">
-      <c r="E163" t="s">
-        <v>225</v>
-      </c>
-      <c r="F163">
-        <v>574</v>
-      </c>
-    </row>
-    <row r="164" spans="5:6">
-      <c r="E164" t="s">
-        <v>226</v>
-      </c>
-      <c r="F164">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="165" spans="5:6">
-      <c r="E165" t="s">
-        <v>227</v>
-      </c>
-      <c r="F165">
-        <v>578</v>
-      </c>
-    </row>
-    <row r="166" spans="5:6">
-      <c r="E166" t="s">
-        <v>228</v>
-      </c>
-      <c r="F166">
-        <v>512</v>
-      </c>
-    </row>
-    <row r="167" spans="5:6">
-      <c r="E167" t="s">
-        <v>229</v>
-      </c>
-      <c r="F167">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="168" spans="5:6">
-      <c r="E168" t="s">
-        <v>230</v>
-      </c>
-      <c r="F168">
-        <v>585</v>
-      </c>
-    </row>
-    <row r="169" spans="5:6">
-      <c r="E169" t="s">
-        <v>231</v>
-      </c>
-      <c r="F169">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="170" spans="5:6">
-      <c r="E170" t="s">
-        <v>0</v>
-      </c>
-      <c r="F170">
-        <v>591</v>
-      </c>
-    </row>
-    <row r="171" spans="5:6">
-      <c r="E171" t="s">
-        <v>232</v>
-      </c>
-      <c r="F171">
-        <v>598</v>
-      </c>
-    </row>
-    <row r="172" spans="5:6">
-      <c r="E172" t="s">
-        <v>2</v>
-      </c>
-      <c r="F172">
-        <v>600</v>
-      </c>
-    </row>
-    <row r="173" spans="5:6">
-      <c r="E173" t="s">
-        <v>3</v>
-      </c>
-      <c r="F173">
-        <v>604</v>
-      </c>
-    </row>
-    <row r="174" spans="5:6">
-      <c r="E174" t="s">
-        <v>5</v>
-      </c>
-      <c r="F174">
-        <v>608</v>
-      </c>
-    </row>
-    <row r="175" spans="5:6">
-      <c r="E175" t="s">
-        <v>233</v>
-      </c>
-      <c r="F175">
-        <v>612</v>
-      </c>
-    </row>
-    <row r="176" spans="5:6">
-      <c r="E176" t="s">
-        <v>7</v>
-      </c>
-      <c r="F176">
-        <v>616</v>
-      </c>
-    </row>
-    <row r="177" spans="5:6">
-      <c r="E177" t="s">
-        <v>9</v>
-      </c>
-      <c r="F177">
-        <v>620</v>
-      </c>
-    </row>
-    <row r="178" spans="5:6">
-      <c r="E178" t="s">
-        <v>234</v>
-      </c>
-      <c r="F178">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="179" spans="5:6">
-      <c r="E179" t="s">
-        <v>235</v>
-      </c>
-      <c r="F179">
-        <v>634</v>
-      </c>
-    </row>
-    <row r="180" spans="5:6">
-      <c r="E180" t="s">
-        <v>236</v>
-      </c>
-      <c r="F180">
-        <v>638</v>
-      </c>
-    </row>
-    <row r="181" spans="5:6">
-      <c r="E181" t="s">
-        <v>11</v>
-      </c>
-      <c r="F181">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="182" spans="5:6">
-      <c r="E182" t="s">
-        <v>237</v>
-      </c>
-      <c r="F182">
-        <v>643</v>
-      </c>
-    </row>
-    <row r="183" spans="5:6">
-      <c r="E183" t="s">
-        <v>238</v>
-      </c>
-      <c r="F183">
-        <v>646</v>
-      </c>
-    </row>
-    <row r="184" spans="5:6">
-      <c r="E184" t="s">
-        <v>239</v>
-      </c>
-      <c r="F184">
-        <v>652</v>
-      </c>
-    </row>
-    <row r="185" spans="5:6">
-      <c r="E185" t="s">
-        <v>240</v>
-      </c>
-      <c r="F185">
-        <v>654</v>
-      </c>
-    </row>
-    <row r="186" spans="5:6">
-      <c r="E186" t="s">
-        <v>241</v>
-      </c>
-      <c r="F186">
-        <v>659</v>
-      </c>
-    </row>
-    <row r="187" spans="5:6">
-      <c r="E187" t="s">
-        <v>242</v>
-      </c>
-      <c r="F187">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="188" spans="5:6">
-      <c r="E188" t="s">
-        <v>243</v>
-      </c>
-      <c r="F188">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="189" spans="5:6">
-      <c r="E189" t="s">
-        <v>244</v>
-      </c>
-      <c r="F189">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="190" spans="5:6">
-      <c r="E190" t="s">
-        <v>245</v>
-      </c>
-      <c r="F190">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="191" spans="5:6">
-      <c r="E191" t="s">
-        <v>246</v>
-      </c>
-      <c r="F191">
-        <v>882</v>
-      </c>
-    </row>
-    <row r="192" spans="5:6">
-      <c r="E192" t="s">
-        <v>247</v>
-      </c>
-      <c r="F192">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="193" spans="5:6">
-      <c r="E193" t="s">
-        <v>248</v>
-      </c>
-      <c r="F193">
-        <v>678</v>
-      </c>
-    </row>
-    <row r="194" spans="5:6">
-      <c r="E194" t="s">
-        <v>14</v>
-      </c>
-      <c r="F194">
-        <v>682</v>
-      </c>
-    </row>
-    <row r="195" spans="5:6">
-      <c r="E195" t="s">
-        <v>249</v>
-      </c>
-      <c r="F195">
-        <v>686</v>
-      </c>
-    </row>
-    <row r="196" spans="5:6">
-      <c r="E196" t="s">
-        <v>250</v>
-      </c>
-      <c r="F196">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="197" spans="5:6">
-      <c r="E197" t="s">
-        <v>16</v>
-      </c>
-      <c r="F197">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="198" spans="5:6">
-      <c r="E198" t="s">
-        <v>251</v>
-      </c>
-      <c r="F198">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="199" spans="5:6">
-      <c r="E199" t="s">
-        <v>17</v>
-      </c>
-      <c r="F199">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="200" spans="5:6">
-      <c r="E200" t="s">
-        <v>252</v>
-      </c>
-      <c r="F200">
-        <v>703</v>
-      </c>
-    </row>
-    <row r="201" spans="5:6">
-      <c r="E201" t="s">
-        <v>19</v>
-      </c>
-      <c r="F201">
-        <v>705</v>
-      </c>
-    </row>
-    <row r="202" spans="5:6">
-      <c r="E202" t="s">
-        <v>253</v>
-      </c>
-      <c r="F202">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="203" spans="5:6">
-      <c r="E203" t="s">
-        <v>254</v>
-      </c>
-      <c r="F203">
-        <v>706</v>
-      </c>
-    </row>
-    <row r="204" spans="5:6">
-      <c r="E204" t="s">
-        <v>20</v>
-      </c>
-      <c r="F204">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="205" spans="5:6">
-      <c r="E205" t="s">
-        <v>255</v>
-      </c>
-      <c r="F205">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="206" spans="5:6">
-      <c r="E206" t="s">
-        <v>256</v>
-      </c>
-      <c r="F206">
-        <v>728</v>
-      </c>
-    </row>
-    <row r="207" spans="5:6">
-      <c r="E207" t="s">
-        <v>22</v>
-      </c>
-      <c r="F207">
-        <v>724</v>
-      </c>
-    </row>
-    <row r="208" spans="5:6">
-      <c r="E208" t="s">
-        <v>257</v>
-      </c>
-      <c r="F208">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="209" spans="5:6">
-      <c r="E209" t="s">
-        <v>258</v>
-      </c>
-      <c r="F209">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="210" spans="5:6">
-      <c r="E210" t="s">
-        <v>259</v>
-      </c>
-      <c r="F210">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="211" spans="5:6">
-      <c r="E211" t="s">
-        <v>260</v>
-      </c>
-      <c r="F211">
-        <v>744</v>
-      </c>
-    </row>
-    <row r="212" spans="5:6">
-      <c r="E212" t="s">
-        <v>24</v>
-      </c>
-      <c r="F212">
-        <v>748</v>
-      </c>
-    </row>
-    <row r="213" spans="5:6">
-      <c r="E213" t="s">
-        <v>25</v>
-      </c>
-      <c r="F213">
-        <v>752</v>
-      </c>
-    </row>
-    <row r="214" spans="5:6">
-      <c r="E214" t="s">
-        <v>26</v>
-      </c>
-      <c r="F214">
-        <v>756</v>
-      </c>
-    </row>
-    <row r="215" spans="5:6">
-      <c r="E215" t="s">
-        <v>261</v>
-      </c>
-      <c r="F215">
-        <v>760</v>
-      </c>
-    </row>
-    <row r="216" spans="5:6">
-      <c r="E216" t="s">
-        <v>262</v>
-      </c>
-      <c r="F216">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="217" spans="5:6">
-      <c r="E217" t="s">
-        <v>263</v>
-      </c>
-      <c r="F217">
-        <v>762</v>
-      </c>
-    </row>
-    <row r="218" spans="5:6">
-      <c r="E218" t="s">
-        <v>264</v>
-      </c>
-      <c r="F218">
-        <v>834</v>
-      </c>
-    </row>
-    <row r="219" spans="5:6">
-      <c r="E219" t="s">
-        <v>28</v>
-      </c>
-      <c r="F219">
-        <v>764</v>
-      </c>
-    </row>
-    <row r="220" spans="5:6">
-      <c r="E220" t="s">
-        <v>265</v>
-      </c>
-      <c r="F220">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="221" spans="5:6">
-      <c r="E221" t="s">
-        <v>266</v>
-      </c>
-      <c r="F221">
-        <v>768</v>
-      </c>
-    </row>
-    <row r="222" spans="5:6">
-      <c r="E222" t="s">
-        <v>267</v>
-      </c>
-      <c r="F222">
-        <v>772</v>
-      </c>
-    </row>
-    <row r="223" spans="5:6">
-      <c r="E223" t="s">
-        <v>268</v>
-      </c>
-      <c r="F223">
-        <v>776</v>
-      </c>
-    </row>
-    <row r="224" spans="5:6">
-      <c r="E224" t="s">
-        <v>269</v>
-      </c>
-      <c r="F224">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="225" spans="5:6">
-      <c r="E225" t="s">
-        <v>29</v>
-      </c>
-      <c r="F225">
-        <v>788</v>
-      </c>
-    </row>
-    <row r="226" spans="5:6">
-      <c r="E226" t="s">
-        <v>30</v>
-      </c>
-      <c r="F226">
-        <v>792</v>
-      </c>
-    </row>
-    <row r="227" spans="5:6">
-      <c r="E227" t="s">
-        <v>270</v>
-      </c>
-      <c r="F227">
-        <v>795</v>
-      </c>
-    </row>
-    <row r="228" spans="5:6">
-      <c r="E228" t="s">
-        <v>271</v>
-      </c>
-      <c r="F228">
-        <v>796</v>
-      </c>
-    </row>
-    <row r="229" spans="5:6">
-      <c r="E229" t="s">
-        <v>272</v>
-      </c>
-      <c r="F229">
-        <v>798</v>
-      </c>
-    </row>
-    <row r="230" spans="5:6">
-      <c r="E230" t="s">
-        <v>31</v>
-      </c>
-      <c r="F230">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="231" spans="5:6">
-      <c r="E231" t="s">
-        <v>32</v>
-      </c>
-      <c r="F231">
-        <v>804</v>
-      </c>
-    </row>
-    <row r="232" spans="5:6">
-      <c r="E232" t="s">
-        <v>273</v>
-      </c>
-      <c r="F232">
-        <v>784</v>
-      </c>
-    </row>
-    <row r="233" spans="5:6">
-      <c r="E233" t="s">
-        <v>274</v>
-      </c>
-      <c r="F233">
-        <v>826</v>
-      </c>
-    </row>
-    <row r="234" spans="5:6">
-      <c r="E234" t="s">
-        <v>275</v>
-      </c>
-      <c r="F234">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="235" spans="5:6">
-      <c r="E235" t="s">
-        <v>276</v>
-      </c>
-      <c r="F235">
+      <c r="B235">
         <v>581</v>
       </c>
     </row>
-    <row r="236" spans="5:6">
-      <c r="E236" t="s">
+    <row r="236" spans="1:2">
+      <c r="A236" t="s">
         <v>34</v>
       </c>
-      <c r="F236">
+      <c r="B236">
         <v>858</v>
       </c>
     </row>
-    <row r="237" spans="5:6">
-      <c r="E237" t="s">
+    <row r="237" spans="1:2">
+      <c r="A237" t="s">
         <v>35</v>
       </c>
-      <c r="F237">
+      <c r="B237">
         <v>860</v>
       </c>
     </row>
-    <row r="238" spans="5:6">
-      <c r="E238" t="s">
+    <row r="238" spans="1:2">
+      <c r="A238" t="s">
         <v>277</v>
       </c>
-      <c r="F238">
+      <c r="B238">
         <v>548</v>
       </c>
     </row>
-    <row r="239" spans="5:6">
-      <c r="E239" t="s">
+    <row r="239" spans="1:2">
+      <c r="A239" t="s">
         <v>278</v>
       </c>
-      <c r="F239">
+      <c r="B239">
         <v>862</v>
       </c>
     </row>
-    <row r="240" spans="5:6">
-      <c r="E240" t="s">
+    <row r="240" spans="1:2">
+      <c r="A240" t="s">
         <v>279</v>
       </c>
-      <c r="F240">
+      <c r="B240">
         <v>704</v>
       </c>
     </row>
-    <row r="241" spans="5:6">
-      <c r="E241" t="s">
+    <row r="241" spans="1:2">
+      <c r="A241" t="s">
         <v>280</v>
       </c>
-      <c r="F241">
+      <c r="B241">
         <v>850</v>
       </c>
     </row>
-    <row r="242" spans="5:6">
-      <c r="E242" t="s">
+    <row r="242" spans="1:2">
+      <c r="A242" t="s">
         <v>281</v>
       </c>
-      <c r="F242">
+      <c r="B242">
         <v>876</v>
       </c>
     </row>
-    <row r="243" spans="5:6">
-      <c r="E243" t="s">
+    <row r="243" spans="1:2">
+      <c r="A243" t="s">
         <v>282</v>
       </c>
-      <c r="F243">
+      <c r="B243">
         <v>732</v>
       </c>
     </row>
-    <row r="244" spans="5:6">
-      <c r="E244" t="s">
+    <row r="244" spans="1:2">
+      <c r="A244" t="s">
         <v>283</v>
       </c>
-      <c r="F244">
+      <c r="B244">
         <v>887</v>
       </c>
     </row>
-    <row r="245" spans="5:6">
-      <c r="E245" t="s">
+    <row r="245" spans="1:2">
+      <c r="A245" t="s">
         <v>284</v>
       </c>
-      <c r="F245">
+      <c r="B245">
         <v>894</v>
       </c>
     </row>
-    <row r="246" spans="5:6">
-      <c r="E246" t="s">
+    <row r="246" spans="1:2">
+      <c r="A246" t="s">
         <v>37</v>
       </c>
-      <c r="F246">
+      <c r="B246">
         <v>716</v>
       </c>
     </row>

--- a/data/stephanie_countries.xlsx
+++ b/data/stephanie_countries.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="287">
   <si>
     <t>Panama</t>
   </si>
@@ -878,6 +878,9 @@
   </si>
   <si>
     <t>GDPPerCapita</t>
+  </si>
+  <si>
+    <t>country_name</t>
   </si>
 </sst>
 </file>
@@ -947,7 +950,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="155">
+  <cellStyleXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -1103,8 +1106,14 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -1114,9 +1123,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="155">
+  <cellStyles count="161">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -1194,6 +1202,9 @@
     <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -1271,6 +1282,9 @@
     <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2373,7 +2387,7 @@
   <dimension ref="A1:K246"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="G1" sqref="G1:J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2384,9 +2398,9 @@
     <col min="11" max="11" width="40.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" s="5" t="s">
-        <v>61</v>
+        <v>286</v>
       </c>
       <c r="B1" s="5" t="s">
         <v>62</v>
@@ -2397,10 +2411,20 @@
       <c r="D1" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="G1" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="H1" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="J1" s="5" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
         <v>64</v>
       </c>
@@ -2410,10 +2434,17 @@
       <c r="D2">
         <v>1946.19</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-    </row>
-    <row r="3" spans="1:9">
+      <c r="G2" t="s">
+        <v>64</v>
+      </c>
+      <c r="H2">
+        <v>4</v>
+      </c>
+      <c r="J2">
+        <v>1946.19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" t="s">
         <v>65</v>
       </c>
@@ -2423,10 +2454,17 @@
       <c r="D3">
         <v>9930.94</v>
       </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="G3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3">
+        <v>8</v>
+      </c>
+      <c r="J3">
+        <v>9930.94</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" t="s">
         <v>66</v>
       </c>
@@ -2436,18 +2474,34 @@
       <c r="D4">
         <v>5360.7</v>
       </c>
-      <c r="H4" s="7"/>
-      <c r="I4" s="7"/>
-    </row>
-    <row r="5" spans="1:9">
+      <c r="G4" t="s">
+        <v>66</v>
+      </c>
+      <c r="H4">
+        <v>12</v>
+      </c>
+      <c r="J4">
+        <v>5360.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" t="s">
         <v>67</v>
       </c>
       <c r="B5">
         <v>16</v>
       </c>
-    </row>
-    <row r="6" spans="1:9">
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5">
+        <v>20</v>
+      </c>
+      <c r="J5">
+        <v>46418.42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="18">
       <c r="A6" t="s">
         <v>68</v>
       </c>
@@ -2457,16 +2511,34 @@
       <c r="D6">
         <v>46418.42</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="G6" t="s">
+        <v>75</v>
+      </c>
+      <c r="H6">
+        <v>36</v>
+      </c>
+      <c r="J6" s="6">
+        <v>43202.37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" ht="18">
       <c r="A7" t="s">
         <v>69</v>
       </c>
       <c r="B7">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:9">
+      <c r="G7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H7">
+        <v>40</v>
+      </c>
+      <c r="J7" s="6">
+        <v>45079.09</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" t="s">
         <v>70</v>
       </c>
@@ -2474,7 +2546,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2482,7 +2554,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:10">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -2490,7 +2562,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:10">
       <c r="A11" t="s">
         <v>73</v>
       </c>
@@ -2498,7 +2570,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:10">
       <c r="A12" t="s">
         <v>74</v>
       </c>
@@ -2506,7 +2578,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18">
+    <row r="13" spans="1:10" ht="18">
       <c r="A13" t="s">
         <v>75</v>
       </c>
@@ -2517,7 +2589,7 @@
         <v>43202.37</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18">
+    <row r="14" spans="1:10" ht="18">
       <c r="A14" t="s">
         <v>76</v>
       </c>
@@ -2528,7 +2600,7 @@
         <v>45079.09</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:10">
       <c r="A15" t="s">
         <v>77</v>
       </c>
@@ -2536,7 +2608,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:10">
       <c r="A16" t="s">
         <v>78</v>
       </c>
@@ -3319,6 +3391,15 @@
       <c r="B113">
         <v>400</v>
       </c>
+      <c r="H113" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="I113" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="J113" s="5" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="114" spans="1:11">
       <c r="A114" t="s">
@@ -3327,6 +3408,12 @@
       <c r="B114">
         <v>398</v>
       </c>
+      <c r="H114" t="s">
+        <v>64</v>
+      </c>
+      <c r="I114">
+        <v>4</v>
+      </c>
     </row>
     <row r="115" spans="1:11">
       <c r="A115" t="s">
@@ -3335,6 +3422,12 @@
       <c r="B115">
         <v>404</v>
       </c>
+      <c r="H115" t="s">
+        <v>65</v>
+      </c>
+      <c r="I115">
+        <v>8</v>
+      </c>
     </row>
     <row r="116" spans="1:11">
       <c r="A116" t="s">
@@ -3343,6 +3436,12 @@
       <c r="B116">
         <v>296</v>
       </c>
+      <c r="H116" t="s">
+        <v>66</v>
+      </c>
+      <c r="I116">
+        <v>12</v>
+      </c>
     </row>
     <row r="117" spans="1:11">
       <c r="A117" t="s">
@@ -3351,6 +3450,12 @@
       <c r="B117">
         <v>408</v>
       </c>
+      <c r="H117" t="s">
+        <v>68</v>
+      </c>
+      <c r="I117">
+        <v>20</v>
+      </c>
     </row>
     <row r="118" spans="1:11">
       <c r="A118" t="s">
@@ -3359,6 +3464,12 @@
       <c r="B118">
         <v>410</v>
       </c>
+      <c r="H118" t="s">
+        <v>75</v>
+      </c>
+      <c r="I118">
+        <v>36</v>
+      </c>
     </row>
     <row r="119" spans="1:11">
       <c r="A119" t="s">
@@ -3367,6 +3478,12 @@
       <c r="B119">
         <v>414</v>
       </c>
+      <c r="H119" t="s">
+        <v>76</v>
+      </c>
+      <c r="I119">
+        <v>40</v>
+      </c>
     </row>
     <row r="120" spans="1:11">
       <c r="A120" t="s">
@@ -3375,14 +3492,11 @@
       <c r="B120">
         <v>417</v>
       </c>
-      <c r="H120" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="I120" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="J120" s="5" t="s">
-        <v>63</v>
+      <c r="H120" t="s">
+        <v>191</v>
+      </c>
+      <c r="I120">
+        <v>442</v>
       </c>
       <c r="K120" s="5" t="s">
         <v>285</v>
@@ -3395,12 +3509,6 @@
       <c r="B121">
         <v>418</v>
       </c>
-      <c r="H121" t="s">
-        <v>64</v>
-      </c>
-      <c r="I121">
-        <v>4</v>
-      </c>
       <c r="K121">
         <v>1946.19</v>
       </c>
@@ -3412,12 +3520,6 @@
       <c r="B122">
         <v>428</v>
       </c>
-      <c r="H122" t="s">
-        <v>65</v>
-      </c>
-      <c r="I122">
-        <v>8</v>
-      </c>
       <c r="K122">
         <v>9930.94</v>
       </c>
@@ -3429,12 +3531,6 @@
       <c r="B123">
         <v>422</v>
       </c>
-      <c r="H123" t="s">
-        <v>66</v>
-      </c>
-      <c r="I123">
-        <v>12</v>
-      </c>
       <c r="K123">
         <v>5360.7</v>
       </c>
@@ -3446,12 +3542,6 @@
       <c r="B124">
         <v>426</v>
       </c>
-      <c r="H124" t="s">
-        <v>68</v>
-      </c>
-      <c r="I124">
-        <v>20</v>
-      </c>
       <c r="K124">
         <v>46418.42</v>
       </c>
@@ -3463,12 +3553,6 @@
       <c r="B125">
         <v>430</v>
       </c>
-      <c r="H125" t="s">
-        <v>75</v>
-      </c>
-      <c r="I125">
-        <v>36</v>
-      </c>
       <c r="K125" s="6">
         <v>43202.37</v>
       </c>
@@ -3480,12 +3564,6 @@
       <c r="B126">
         <v>434</v>
       </c>
-      <c r="H126" t="s">
-        <v>76</v>
-      </c>
-      <c r="I126">
-        <v>40</v>
-      </c>
       <c r="K126" s="6">
         <v>45079.09</v>
       </c>
@@ -3496,12 +3574,6 @@
       </c>
       <c r="B127">
         <v>438</v>
-      </c>
-      <c r="H127" t="s">
-        <v>191</v>
-      </c>
-      <c r="I127">
-        <v>442</v>
       </c>
       <c r="K127" s="6">
         <v>110664.8</v>
